--- a/Outputs/TT/risk_output.xlsx
+++ b/Outputs/TT/risk_output.xlsx
@@ -1113,10 +1113,10 @@
         <v>2.21298319049</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.4197076429652091</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.421424514446655</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9461790532602411</v>
+        <v>0.9451882180663255</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1196,10 +1196,10 @@
         <v>11.2469664187</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.4215401207958929</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.4232460639106356</v>
       </c>
       <c r="M3">
         <v>0.0008751159096941537</v>
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.9775938518424167</v>
+        <v>0.9772906700221912</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -1279,10 +1279,10 @@
         <v>0.271955264569</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.4200660971339455</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.4217989111535836</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9454845818232505</v>
+        <v>0.9446138223610779</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1341,10 +1341,10 @@
         <v>0.209118146287</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.4200660971339455</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.4217989111535836</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9454845818232505</v>
+        <v>0.9446138223610779</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1424,10 +1424,10 @@
         <v>2.02754522385</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.4201124063060524</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.4218611625795347</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="AD6">
-        <v>0.8258727527423381</v>
+        <v>0.8247398559159452</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1486,10 +1486,10 @@
         <v>0.357936384024</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.420489865977269</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.4222584728705712</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9665704272785863</v>
+        <v>0.9658941484953938</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1569,10 +1569,10 @@
         <v>3.77559258768</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.4207617809584214</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.4225553281302513</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0.8</v>
       </c>
       <c r="AD8">
-        <v>0.8029989571154706</v>
+        <v>0.8020345005957549</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1649,10 +1649,10 @@
         <v>1.80011179336</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.4210397382991568</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.4228287443304451</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0.9</v>
       </c>
       <c r="AD9">
-        <v>0.8838519459934321</v>
+        <v>0.8831690474918418</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1732,10 +1732,10 @@
         <v>4.24177452761</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.4215059456140542</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.4232975444684879</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0.6571428571428571</v>
       </c>
       <c r="AD10">
-        <v>0.6819265905123342</v>
+        <v>0.6809294054668565</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1815,10 +1815,10 @@
         <v>1.37397008088</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.4222513528830978</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.4240133042763423</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0.6</v>
       </c>
       <c r="AD11">
-        <v>0.6337571920932455</v>
+        <v>0.6328954351762274</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1898,10 +1898,10 @@
         <v>4.20951543225</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.4229233837914712</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.4246294573065417</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0.6571428571428571</v>
       </c>
       <c r="AD12">
-        <v>0.6394087942242507</v>
+        <v>0.6387811772002763</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1960,10 +1960,10 @@
         <v>0.0429155876819</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.4222888270217713</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.4239890767881844</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="AD13">
-        <v>0.9747906774887314</v>
+        <v>0.9747318703904476</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -2022,10 +2022,10 @@
         <v>0.08538788589530001</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.4222888270217713</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.4239890767881844</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2084,10 +2084,10 @@
         <v>0.85969636805</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.422146405893411</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.4238632154917916</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="AD15">
-        <v>0.9677768473493271</v>
+        <v>0.9676552483044759</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -2167,10 +2167,10 @@
         <v>4.42947499742</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0.4228980580051091</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.4245233052335924</v>
       </c>
       <c r="M16">
         <v>0.0006217062473297119</v>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="AD16">
-        <v>0.9837639180813839</v>
+        <v>0.9839243078538822</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -2250,10 +2250,10 @@
         <v>1.18778544266</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0.4222067268419777</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.4239192193047457</v>
       </c>
       <c r="M17">
         <v>0.002001351945930057</v>
@@ -2298,7 +2298,7 @@
         <v>0.9</v>
       </c>
       <c r="AD17">
-        <v>0.9034676149955893</v>
+        <v>0.9032158899256456</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2312,10 +2312,10 @@
         <v>3.27249038479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0.4216907417750144</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.4234638537126034</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0.76</v>
       </c>
       <c r="AD18">
-        <v>0.7936774004454089</v>
+        <v>0.7930013991738981</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2395,10 +2395,10 @@
         <v>1.95801235762</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0.4218310152836161</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.4236117694473411</v>
       </c>
       <c r="M19">
         <v>0.001472308558802451</v>
@@ -2443,7 +2443,7 @@
         <v>0.35</v>
       </c>
       <c r="AD19">
-        <v>0.4346244578963775</v>
+        <v>0.4331586160319988</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2478,10 +2478,10 @@
         <v>1.86640516275</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0.421777094806823</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.4235634194519002</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0.4</v>
       </c>
       <c r="AD20">
-        <v>0.4705951592880369</v>
+        <v>0.4691955909664161</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2561,10 +2561,10 @@
         <v>4.639154961530001</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0.422052608373465</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.423807255184105</v>
       </c>
       <c r="M21">
         <v>0.001010716312071856</v>
@@ -2609,7 +2609,7 @@
         <v>0.7</v>
       </c>
       <c r="AD21">
-        <v>0.7258760630014648</v>
+        <v>0.7251618513191589</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2644,10 +2644,10 @@
         <v>1.52470016361</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0.422120205270333</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.4238932182705527</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0.5</v>
       </c>
       <c r="AD22">
-        <v>0.5501265874589178</v>
+        <v>0.5490266344148268</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2727,10 +2727,10 @@
         <v>2.06311724384</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0.4221526458948004</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.4239245199176715</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0.3</v>
       </c>
       <c r="AD23">
-        <v>0.3837175595222268</v>
+        <v>0.3822402124023561</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2810,10 +2810,10 @@
         <v>3.75714370003</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0.4226041381663673</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.4243473159203633</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0.475</v>
       </c>
       <c r="AD24">
-        <v>0.5288013584400981</v>
+        <v>0.5278116437717666</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2872,10 +2872,10 @@
         <v>0.711713674278</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0.4219983196509886</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.4237695757784773</v>
       </c>
       <c r="M25">
         <v>0.01414931253953413</v>
@@ -2920,7 +2920,7 @@
         <v>0.3</v>
       </c>
       <c r="AD25">
-        <v>0.4574059653443363</v>
+        <v>0.4560486452898472</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2934,10 +2934,10 @@
         <v>0.0326140468585</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0.4221090284128787</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.4238683768732724</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2982,7 +2982,7 @@
         <v>0.2</v>
       </c>
       <c r="AD26">
-        <v>0.3137578780713156</v>
+        <v>0.312101635577547</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -3017,10 +3017,10 @@
         <v>3.37296914288</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0.4235111747227521</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.4251447436002518</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="AD27">
-        <v>0.5738638907302863</v>
+        <v>0.5732746490162748</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -3100,10 +3100,10 @@
         <v>2.75451859239</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0.4226852119758442</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.4244079289419379</v>
       </c>
       <c r="M28">
         <v>0.01796665307952137</v>
@@ -3148,7 +3148,7 @@
         <v>0.32</v>
       </c>
       <c r="AD28">
-        <v>0.4739377717431932</v>
+        <v>0.47284557841839</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3183,10 +3183,10 @@
         <v>2.81890251748</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0.4227858625804271</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.4244920617159904</v>
       </c>
       <c r="M29">
         <v>0.001111738085746765</v>
@@ -3231,7 +3231,7 @@
         <v>0.4</v>
       </c>
       <c r="AD29">
-        <v>0.4840506594714781</v>
+        <v>0.4830144657381108</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3266,10 +3266,10 @@
         <v>1.66635099276</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0.4229406833473899</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.4246472169813024</v>
       </c>
       <c r="M30">
         <v>0.03611377080281575</v>
@@ -3314,7 +3314,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="AD30">
-        <v>0.5742893829675463</v>
+        <v>0.5735157057688393</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3349,10 +3349,10 @@
         <v>4.36446486691</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0.4231417603364956</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.4248233523997544</v>
       </c>
       <c r="M31">
         <v>0.0006357804934183757</v>
@@ -3397,7 +3397,7 @@
         <v>0.6</v>
       </c>
       <c r="AD31">
-        <v>0.6294770890674508</v>
+        <v>0.6288975727149055</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3432,10 +3432,10 @@
         <v>0.466011736493</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0.4231304474704199</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0.4248155665968975</v>
       </c>
       <c r="M32">
         <v>0.003731669113039971</v>
@@ -3480,7 +3480,7 @@
         <v>0.2</v>
       </c>
       <c r="AD32">
-        <v>0.3586542615178392</v>
+        <v>0.3574394802325487</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3515,10 +3515,10 @@
         <v>2.37252186276</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0.4233818584781009</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0.4250410880203131</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="AD33">
-        <v>0.533604197367938</v>
+        <v>0.5328797734982259</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3598,10 +3598,10 @@
         <v>0.530978157557</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0.4233845962237013</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.4250371924866871</v>
       </c>
       <c r="M34">
         <v>0.0002025614306330681</v>
@@ -3646,7 +3646,7 @@
         <v>0.5</v>
       </c>
       <c r="AD34">
-        <v>0.546604048683428</v>
+        <v>0.5459103126801312</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3681,10 +3681,10 @@
         <v>1.8484457239</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0.4241247844632005</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.4256900034936134</v>
       </c>
       <c r="M35">
         <v>0.003832659551075527</v>
@@ -3729,7 +3729,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="AD35">
-        <v>0.4856212654447261</v>
+        <v>0.4850264687808609</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3764,10 +3764,10 @@
         <v>1.31738612474</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0.4240478636351497</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.4256154538479098</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0.6</v>
       </c>
       <c r="AD36">
-        <v>0.5643389059754708</v>
+        <v>0.5639021095211244</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3847,10 +3847,10 @@
         <v>2.93688458877</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0.4239342307243544</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.4255363396363414</v>
       </c>
       <c r="M37">
         <v>0.0003296385434540835</v>
@@ -3895,7 +3895,7 @@
         <v>0.4400000000000001</v>
       </c>
       <c r="AD37">
-        <v>0.4227468040036977</v>
+        <v>0.4219444515380879</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -3930,10 +3930,10 @@
         <v>1.54848745222</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0.4244794372273454</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0.426012569136613</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="AD38">
-        <v>0.5140475930053467</v>
+        <v>0.513635495577337</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -4013,10 +4013,10 @@
         <v>0.631437015887</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0.4244005920050488</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0.4259393628820707</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0.6</v>
       </c>
       <c r="AD39">
-        <v>0.5650459749590492</v>
+        <v>0.5647268437380309</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4096,10 +4096,10 @@
         <v>2.61180228867</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0.423220464201792</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0.4248902003478938</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0.7</v>
       </c>
       <c r="AD40">
-        <v>0.7021498649434136</v>
+        <v>0.7017653072017872</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4179,10 +4179,10 @@
         <v>0.874816372154</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0.4249969966542623</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0.4264970140644317</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -4227,7 +4227,7 @@
         <v>0.6</v>
       </c>
       <c r="AD41">
-        <v>0.5650459749590492</v>
+        <v>0.5649238444098023</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4262,10 +4262,10 @@
         <v>5.24070310892</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0.4259969615872707</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0.4274244703450893</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0.5</v>
       </c>
       <c r="AD42">
-        <v>0.4834388797314766</v>
+        <v>0.4834560499686287</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4345,10 +4345,10 @@
         <v>2.05009433556</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0.4260343144119642</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0.4274693478630334</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>0.6</v>
       </c>
       <c r="AD43">
-        <v>0.5650459749590492</v>
+        <v>0.5652666878423228</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4428,10 +4428,10 @@
         <v>1.41508339599</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0.4234370279467451</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0.4251103870438619</v>
       </c>
       <c r="M44">
         <v>0.0001873745272556941</v>
@@ -4476,7 +4476,7 @@
         <v>0.8666666666666666</v>
       </c>
       <c r="AD44">
-        <v>0.8636098594368382</v>
+        <v>0.8636749671626475</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4511,10 +4511,10 @@
         <v>0.480276524089</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0.4234071674492411</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>0.4250825046061218</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0.8</v>
       </c>
       <c r="AD45">
-        <v>0.7858299476998697</v>
+        <v>0.7857037540154279</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4594,10 +4594,10 @@
         <v>5.20572588583</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0.4290300523836034</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>0.4302353807591718</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>0.4</v>
       </c>
       <c r="AD46">
-        <v>0.4179689933619466</v>
+        <v>0.4188332037576312</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -4677,10 +4677,10 @@
         <v>2.02262738416</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0.4237827329873565</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0.4254731687974138</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="AD47">
-        <v>0.9545165739436167</v>
+        <v>0.954911254706818</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -4760,10 +4760,10 @@
         <v>2.32077294093</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0.4268340728535781</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>0.4282020553105449</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>0.6</v>
       </c>
       <c r="AD48">
-        <v>0.5650459749590492</v>
+        <v>0.5655295928990478</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -4843,10 +4843,10 @@
         <v>2.55070448056</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0.4269749252738987</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0.4283356208551892</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="AD49">
-        <v>0.4254681575326059</v>
+        <v>0.4256728571243022</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -4926,10 +4926,10 @@
         <v>1.03432944709</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0.4243595217516971</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0.4259363414627017</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>0.4</v>
       </c>
       <c r="AD50">
-        <v>0.3975525940473172</v>
+        <v>0.3968321461138246</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5009,10 +5009,10 @@
         <v>3.57290652483</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0.4248116234883835</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0.426338468676432</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -5057,7 +5057,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="AD51">
-        <v>0.5099832207770361</v>
+        <v>0.5096726520400728</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5092,10 +5092,10 @@
         <v>2.37534156814</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0.4281568115248446</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>0.4294398332079767</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="AD52">
-        <v>0.3417214670767398</v>
+        <v>0.3421211261223834</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -5175,10 +5175,10 @@
         <v>3.31152766483</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0.4289588430699426</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0.4301613422735621</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>0.4</v>
       </c>
       <c r="AD53">
-        <v>0.4038640125482106</v>
+        <v>0.4046711722114873</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5258,10 +5258,10 @@
         <v>1.15133894537</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0.4297859205554306</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0.4309375197805835</v>
       </c>
       <c r="M54">
         <v>0.000463518631808898</v>
@@ -5306,7 +5306,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="AD54">
-        <v>0.4703500058926868</v>
+        <v>0.4715856945643222</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5341,10 +5341,10 @@
         <v>1.18236404286</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0.4243928087607608</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0.4260001575359255</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -5389,7 +5389,7 @@
         <v>0.6</v>
       </c>
       <c r="AD55">
-        <v>0.5497624710031992</v>
+        <v>0.5494108303607473</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5424,10 +5424,10 @@
         <v>4.755083917569999</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0.4249380715361776</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>0.4264867600408602</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>0.55</v>
       </c>
       <c r="AD56">
-        <v>0.5244350628473672</v>
+        <v>0.5242024974809001</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -5507,10 +5507,10 @@
         <v>0.614146066608</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0.424033996861505</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0.4257330271855311</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AD57">
-        <v>0.9560770932779735</v>
+        <v>0.9565605022064182</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -5590,10 +5590,10 @@
         <v>7.034756503560001</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0.4248990161456824</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>0.4265751012896577</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -5638,7 +5638,7 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="AD58">
-        <v>0.9072735966917398</v>
+        <v>0.9079316790694441</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -5673,10 +5673,10 @@
         <v>0.47201922999</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0.4294038637743199</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0.4305720814490699</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -5721,7 +5721,7 @@
         <v>0.5</v>
       </c>
       <c r="AD59">
-        <v>0.4939221203678237</v>
+        <v>0.4950859094053207</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -5756,10 +5756,10 @@
         <v>2.35403262489</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0.4299481550129333</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0.4310809299205539</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -5804,7 +5804,7 @@
         <v>0.55</v>
       </c>
       <c r="AD60">
-        <v>0.5357954655957567</v>
+        <v>0.5372367153168432</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -5839,10 +5839,10 @@
         <v>1.31197147916</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0.43000821806323</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>0.4311275070156284</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -5887,7 +5887,7 @@
         <v>0.4</v>
       </c>
       <c r="AD61">
-        <v>0.4370576429608344</v>
+        <v>0.4382875970493725</v>
       </c>
     </row>
     <row r="62" spans="1:30">
@@ -5922,10 +5922,10 @@
         <v>1.59673730947</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0.4299175058288854</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>0.4310363501693021</v>
       </c>
       <c r="M62">
         <v>0.02392984962463379</v>
@@ -5970,7 +5970,7 @@
         <v>0.25</v>
       </c>
       <c r="AD62">
-        <v>0.4458998046004492</v>
+        <v>0.4471198896539628</v>
       </c>
     </row>
     <row r="63" spans="1:30">
@@ -6005,10 +6005,10 @@
         <v>1.79305179619</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0.427611522138934</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>0.428902364368647</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6053,7 +6053,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="AD63">
-        <v>0.4533837210178945</v>
+        <v>0.4538614260487482</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -6088,10 +6088,10 @@
         <v>1.3066174005</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0.4277963508118603</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0.4290761319762513</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -6136,7 +6136,7 @@
         <v>0.5</v>
       </c>
       <c r="AD64">
-        <v>0.4812992845031831</v>
+        <v>0.4819032407242895</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6150,10 +6150,10 @@
         <v>0.041708868189</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0.4294038637743199</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0.4305720814490699</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -6198,7 +6198,7 @@
         <v>0.4</v>
       </c>
       <c r="AD65">
-        <v>0.4101754299119577</v>
+        <v>0.4111438586872212</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6233,10 +6233,10 @@
         <v>0.992292562077</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>0.4295225476904286</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0.4306831449112693</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -6281,7 +6281,7 @@
         <v>0.55</v>
       </c>
       <c r="AD66">
-        <v>0.5361127418174149</v>
+        <v>0.5374141617214725</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -6316,10 +6316,10 @@
         <v>0.697740676493</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>0.4295225476904286</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0.4306831449112693</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -6364,7 +6364,7 @@
         <v>0.5</v>
       </c>
       <c r="AD67">
-        <v>0.4952051947949608</v>
+        <v>0.4964111875356268</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -6399,10 +6399,10 @@
         <v>1.32320320306</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0.4294058589172754</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>0.4305585811566761</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -6447,7 +6447,7 @@
         <v>0.4</v>
       </c>
       <c r="AD68">
-        <v>0.467831950792238</v>
+        <v>0.4689342471206189</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -6482,10 +6482,10 @@
         <v>0.264764074571</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>0.429641231606537</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>0.4307942083734688</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -6530,7 +6530,7 @@
         <v>0.6</v>
       </c>
       <c r="AD69">
-        <v>0.5795590955362711</v>
+        <v>0.58100107561889</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -6565,10 +6565,10 @@
         <v>3.11676224753</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>0.4297291366705158</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0.4308339546857385</v>
       </c>
       <c r="M70">
         <v>0.0008459795605052601</v>
@@ -6613,7 +6613,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="AD70">
-        <v>0.3959626569753231</v>
+        <v>0.3970018252740188</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -6648,10 +6648,10 @@
         <v>1.59285619452</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>0.4299231255714606</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>0.4310456415271547</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -6696,7 +6696,7 @@
         <v>0.6</v>
       </c>
       <c r="AD71">
-        <v>0.5786438205278716</v>
+        <v>0.5801757595878974</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -6731,10 +6731,10 @@
         <v>0.5445393436720001</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0.4301565519784886</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>0.4312511501539514</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0.4</v>
       </c>
       <c r="AD72">
-        <v>0.4182320156590608</v>
+        <v>0.4194657874449813</v>
       </c>
     </row>
     <row r="73" spans="1:30">
@@ -6814,10 +6814,10 @@
         <v>2.8477270167</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>0.4255758035898243</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>0.4270418997184113</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -6862,7 +6862,7 @@
         <v>0.55</v>
       </c>
       <c r="AD73">
-        <v>0.5319015765102755</v>
+        <v>0.531893625840862</v>
       </c>
     </row>
     <row r="74" spans="1:30">
@@ -6897,10 +6897,10 @@
         <v>4.31109654994</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0.4268808485065542</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>0.428219441118797</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -6945,7 +6945,7 @@
         <v>0.6</v>
       </c>
       <c r="AD74">
-        <v>0.5808367707734502</v>
+        <v>0.5813704634575543</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -6980,10 +6980,10 @@
         <v>1.97315446011</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0.4285117542174324</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>0.4297295591587165</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0.35</v>
       </c>
       <c r="AD75">
-        <v>0.3580121296534139</v>
+        <v>0.3585634948182275</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7060,10 +7060,10 @@
         <v>0.234580301343</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>0.4280998941405833</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>0.4293454561363556</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -7108,7 +7108,7 @@
         <v>0.4</v>
       </c>
       <c r="AD76">
-        <v>0.3975525940473172</v>
+        <v>0.3980602377769817</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -7143,10 +7143,10 @@
         <v>0.569247151121</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>0.4301565519784886</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>0.4312511501539514</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0.2</v>
       </c>
       <c r="AD77">
-        <v>0.3460371606141828</v>
+        <v>0.3471025197053843</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -7226,10 +7226,10 @@
         <v>0.25509825235</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0.4290412988247685</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>0.4302104062467686</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -7274,7 +7274,7 @@
         <v>0.4</v>
       </c>
       <c r="AD78">
-        <v>0.4101088330852884</v>
+        <v>0.4109554434123431</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -7309,10 +7309,10 @@
         <v>0.411381801014</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>0.4280998941405833</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>0.4293454561363556</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -7357,7 +7357,7 @@
         <v>0.4</v>
       </c>
       <c r="AD79">
-        <v>0.3975525940473172</v>
+        <v>0.3980602377769817</v>
       </c>
     </row>
     <row r="80" spans="1:30">
@@ -7392,10 +7392,10 @@
         <v>2.57526457167</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>0.428799212512207</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>0.4299710688895256</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0.4</v>
       </c>
       <c r="AD80">
-        <v>0.4108371866653115</v>
+        <v>0.4116044419274968</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -7475,10 +7475,10 @@
         <v>5.869738245009999</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>0.4297632175535437</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>0.4308504513115456</v>
       </c>
       <c r="M81">
         <v>0.003247977164854486</v>
@@ -7523,7 +7523,7 @@
         <v>0.2444444444444445</v>
       </c>
       <c r="AD81">
-        <v>0.3406709851506705</v>
+        <v>0.3415911389078655</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -7558,10 +7558,10 @@
         <v>1.86540513759</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0.4278676939155879</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>0.4291226814155144</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="AD82">
-        <v>0.3430583637295002</v>
+        <v>0.3433617116766181</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -7641,10 +7641,10 @@
         <v>2.06611660328</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>0.4283974883609706</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>0.4296061407259504</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -7689,7 +7689,7 @@
         <v>0.4</v>
       </c>
       <c r="AD83">
-        <v>0.3975525940473172</v>
+        <v>0.398157062183446</v>
       </c>
     </row>
     <row r="84" spans="1:30">
@@ -7724,10 +7724,10 @@
         <v>0.851153876708</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0.4300699252220505</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>0.4311684577588063</v>
       </c>
       <c r="M84">
         <v>0.005470496912797293</v>
@@ -7772,7 +7772,7 @@
         <v>0.2</v>
       </c>
       <c r="AD84">
-        <v>0.3658722137978401</v>
+        <v>0.3669550868976622</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -7807,10 +7807,10 @@
         <v>0.166441588352</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0.4302266334582111</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>0.4313045072719317</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0.2</v>
       </c>
       <c r="AD85">
-        <v>0.3215324822107533</v>
+        <v>0.3225628052189247</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -7887,10 +7887,10 @@
         <v>0.0139909133953</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>0.4299832984656126</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>0.4310857653636612</v>
       </c>
       <c r="M86">
         <v>0.009454967081546783</v>
@@ -7935,7 +7935,7 @@
         <v>0.2</v>
       </c>
       <c r="AD86">
-        <v>0.3747690278589165</v>
+        <v>0.3758438987678326</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -7970,10 +7970,10 @@
         <v>0.367224335329</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>0.43004909110234</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>0.4311351805580204</v>
       </c>
       <c r="M87">
         <v>0.001881548513968786</v>
@@ -8018,7 +8018,7 @@
         <v>0.2</v>
       </c>
       <c r="AD87">
-        <v>0.2925903466419048</v>
+        <v>0.2934942313846218</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8053,10 +8053,10 @@
         <v>1.34162331793</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>0.4300104115816268</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>0.4310938960769627</v>
       </c>
       <c r="M88">
         <v>0.01559991950080508</v>
@@ -8101,7 +8101,7 @@
         <v>0.2</v>
       </c>
       <c r="AD88">
-        <v>0.3856929632690206</v>
+        <v>0.386800827310876</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -8136,10 +8136,10 @@
         <v>1.14417675313</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0.4295285331192961</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>0.4306426440340882</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -8184,7 +8184,7 @@
         <v>0.4</v>
       </c>
       <c r="AD89">
-        <v>0.4107014058740656</v>
+        <v>0.4117083797903502</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -8219,10 +8219,10 @@
         <v>1.57397944819</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>0.4302251770116522</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>0.4312916368293525</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>0.2</v>
       </c>
       <c r="AD90">
-        <v>0.3526106779427763</v>
+        <v>0.3537120515324785</v>
       </c>
     </row>
     <row r="91" spans="1:30">
@@ -8302,10 +8302,10 @@
         <v>0.554594844549</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0.4302057993385004</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0.431271230071146</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -8350,7 +8350,7 @@
         <v>0.2</v>
       </c>
       <c r="AD91">
-        <v>0.2638464653311053</v>
+        <v>0.2647341812335752</v>
       </c>
     </row>
     <row r="92" spans="1:30">
@@ -8385,10 +8385,10 @@
         <v>0.7656176237090001</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>0.4301148837390674</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>0.4311845957523796</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -8433,7 +8433,7 @@
         <v>0.2</v>
       </c>
       <c r="AD92">
-        <v>0.243738021238165</v>
+        <v>0.244548661938885</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -8468,10 +8468,10 @@
         <v>1.74913063697</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>0.4300266858499606</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0.4310721564685197</v>
       </c>
       <c r="M93">
         <v>0.01142405128479004</v>
@@ -8516,7 +8516,7 @@
         <v>0.25</v>
       </c>
       <c r="AD93">
-        <v>0.3710519805064389</v>
+        <v>0.3721279641850805</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -8551,10 +8551,10 @@
         <v>1.16234831856</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>0.4299437540679669</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>0.4310112981862491</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -8599,7 +8599,7 @@
         <v>0.2</v>
       </c>
       <c r="AD94">
-        <v>0.2907365437083744</v>
+        <v>0.2915991784281532</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -8634,10 +8634,10 @@
         <v>1.31027731492</v>
       </c>
       <c r="K95">
-        <v>1</v>
+        <v>0.4290956419196937</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>0.4302226345536976</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -8682,7 +8682,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="AD95">
-        <v>0.3554576428392905</v>
+        <v>0.3561914769729644</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -8717,10 +8717,10 @@
         <v>1.89137375513</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>0.4293230733306888</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>0.4304315819534433</v>
       </c>
       <c r="M96">
         <v>0.002874451237065452</v>
@@ -8765,7 +8765,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="AD96">
-        <v>0.3917663473362261</v>
+        <v>0.3926596933243879</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -8800,10 +8800,10 @@
         <v>1.70839084459</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>0.4289792136545647</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>0.4301104042032746</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         <v>0.4</v>
       </c>
       <c r="AD97">
-        <v>0.4049773524461211</v>
+        <v>0.4057879632551684</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -8883,10 +8883,10 @@
         <v>0.311561692674</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>0.4290956419196937</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>0.4302226345536976</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -8931,7 +8931,7 @@
         <v>0.4</v>
       </c>
       <c r="AD98">
-        <v>0.4281768451123975</v>
+        <v>0.4290803151128523</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -8966,10 +8966,10 @@
         <v>0.6814993017290001</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0.4290956419196937</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>0.4302226345536976</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0.3</v>
       </c>
       <c r="AD99">
-        <v>0.3306750978624149</v>
+        <v>0.3313511204639657</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9049,10 +9049,10 @@
         <v>1.17727480982</v>
       </c>
       <c r="K100">
-        <v>1</v>
+        <v>0.4291392843118625</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>0.4302572358612459</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -9097,7 +9097,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="AD100">
-        <v>0.357607848732035</v>
+        <v>0.358360593563276</v>
       </c>
     </row>
     <row r="101" spans="1:30">
@@ -9132,10 +9132,10 @@
         <v>0.341342793196</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0.4257379966999272</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>0.4271920294126909</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -9180,7 +9180,7 @@
         <v>0.4</v>
       </c>
       <c r="AD101">
-        <v>0.4022104783366894</v>
+        <v>0.4019534371558695</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -9215,10 +9215,10 @@
         <v>5.60620034931</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>0.4268629475689544</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>0.4281956075730189</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0.475</v>
       </c>
       <c r="AD102">
-        <v>0.4675520366892055</v>
+        <v>0.4678149556188715</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -9298,10 +9298,10 @@
         <v>0.385927238786</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>0.4290473898024494</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>0.430170062815147</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>0.4</v>
       </c>
       <c r="AD103">
-        <v>0.4168778504340828</v>
+        <v>0.4177383985571931</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -9381,10 +9381,10 @@
         <v>2.62012834853</v>
       </c>
       <c r="K104">
-        <v>1</v>
+        <v>0.4256796852923612</v>
       </c>
       <c r="L104">
-        <v>1</v>
+        <v>0.4271484991110732</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>0.5599999999999999</v>
       </c>
       <c r="AD104">
-        <v>0.527759066943708</v>
+        <v>0.5277765611277453</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -9464,10 +9464,10 @@
         <v>1.375020657</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>0.4290893935053778</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>0.430190837492164</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="AD105">
-        <v>0.2996265158687133</v>
+        <v>0.3002258672028786</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -9547,10 +9547,10 @@
         <v>0.204383745654</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>0.4299004764089155</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>0.4309240367465927</v>
       </c>
       <c r="M106">
         <v>0.00734679326415062</v>
@@ -9595,7 +9595,7 @@
         <v>0.4</v>
       </c>
       <c r="AD106">
-        <v>0.4799604088118668</v>
+        <v>0.4812462325366951</v>
       </c>
     </row>
     <row r="107" spans="1:30">
@@ -9609,10 +9609,10 @@
         <v>1.08510641258</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>0.4298462757843945</v>
       </c>
       <c r="L107">
-        <v>1</v>
+        <v>0.4308768506606284</v>
       </c>
       <c r="M107">
         <v>0.01285934183332655</v>
@@ -9657,7 +9657,7 @@
         <v>0.4</v>
       </c>
       <c r="AD107">
-        <v>0.5005909683913208</v>
+        <v>0.5019073080643657</v>
       </c>
     </row>
     <row r="108" spans="1:30">
@@ -9692,10 +9692,10 @@
         <v>3.54536785916</v>
       </c>
       <c r="K108">
-        <v>1</v>
+        <v>0.4279982153329631</v>
       </c>
       <c r="L108">
-        <v>1</v>
+        <v>0.4292082230062217</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0.5</v>
       </c>
       <c r="AD108">
-        <v>0.4784169136667177</v>
+        <v>0.4790760687889448</v>
       </c>
     </row>
     <row r="109" spans="1:30">
@@ -9775,10 +9775,10 @@
         <v>3.04497278485</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>0.4285098027970998</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>0.4296606657931423</v>
       </c>
       <c r="M109">
         <v>0.0001839612975068714</v>
@@ -9823,7 +9823,7 @@
         <v>0.52</v>
       </c>
       <c r="AD109">
-        <v>0.5038608576220469</v>
+        <v>0.504746177234158</v>
       </c>
     </row>
     <row r="110" spans="1:30">
@@ -9855,10 +9855,10 @@
         <v>0.0906262453232</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>0.428999137685205</v>
       </c>
       <c r="L110">
-        <v>1</v>
+        <v>0.4301174910765961</v>
       </c>
       <c r="M110">
         <v>0.0009780530507365862</v>
@@ -9903,7 +9903,7 @@
         <v>0.4</v>
       </c>
       <c r="AD110">
-        <v>0.4035540254921047</v>
+        <v>0.404366928310961</v>
       </c>
     </row>
     <row r="111" spans="1:30">
@@ -9938,10 +9938,10 @@
         <v>3.5013848062</v>
       </c>
       <c r="K111">
-        <v>1</v>
+        <v>0.4297045210520143</v>
       </c>
       <c r="L111">
-        <v>1</v>
+        <v>0.4307212246731655</v>
       </c>
       <c r="M111">
         <v>0.0004621291277455348</v>
@@ -9986,7 +9986,7 @@
         <v>0.4</v>
       </c>
       <c r="AD111">
-        <v>0.4143242852447241</v>
+        <v>0.4153906250241315</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -10021,10 +10021,10 @@
         <v>10.6905741893</v>
       </c>
       <c r="K112">
-        <v>1</v>
+        <v>0.4292525714656517</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>0.4303172643481179</v>
       </c>
       <c r="M112">
         <v>0.01303350522920683</v>
@@ -10069,7 +10069,7 @@
         <v>0.2533333333333333</v>
       </c>
       <c r="AD112">
-        <v>0.3450804646867228</v>
+        <v>0.3458375538197081</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -10104,10 +10104,10 @@
         <v>1.85376203448</v>
       </c>
       <c r="K113">
-        <v>1</v>
+        <v>0.4290893935053778</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>0.430190837492164</v>
       </c>
       <c r="M113">
         <v>0.0001128522750849907</v>
@@ -10152,7 +10152,7 @@
         <v>0.25</v>
       </c>
       <c r="AD113">
-        <v>0.2792899665398286</v>
+        <v>0.2798418777472476</v>
       </c>
     </row>
     <row r="114" spans="1:30">
@@ -10166,10 +10166,10 @@
         <v>0.121398353296</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>0.4297920751598738</v>
       </c>
       <c r="L114">
-        <v>1</v>
+        <v>0.430829664574664</v>
       </c>
       <c r="M114">
         <v>0.005626850575208664</v>
@@ -10214,7 +10214,7 @@
         <v>0.4</v>
       </c>
       <c r="AD114">
-        <v>0.4765025254270766</v>
+        <v>0.4777450627043392</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -10249,10 +10249,10 @@
         <v>4.58538949542</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>0.4296759623401124</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>0.4307188761142998</v>
       </c>
       <c r="M115">
         <v>0.03500728909931486</v>
@@ -10297,7 +10297,7 @@
         <v>0.2571428571428572</v>
       </c>
       <c r="AD115">
-        <v>0.4239581049920724</v>
+        <v>0.4250395291106831</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -10329,10 +10329,10 @@
         <v>0.0688485217213</v>
       </c>
       <c r="K116">
-        <v>1</v>
+        <v>0.4297920751598738</v>
       </c>
       <c r="L116">
-        <v>1</v>
+        <v>0.430829664574664</v>
       </c>
       <c r="M116">
         <v>0.02874751985073089</v>
@@ -10377,7 +10377,7 @@
         <v>0.4</v>
       </c>
       <c r="AD116">
-        <v>0.5516532478589781</v>
+        <v>0.5530710931366098</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -10391,10 +10391,10 @@
         <v>0.0434194939589</v>
       </c>
       <c r="K117">
-        <v>1</v>
+        <v>0.4297920751598738</v>
       </c>
       <c r="L117">
-        <v>1</v>
+        <v>0.430829664574664</v>
       </c>
       <c r="M117">
         <v>0.01237578317523003</v>
@@ -10439,7 +10439,7 @@
         <v>0.4</v>
       </c>
       <c r="AD117">
-        <v>0.4953383672028363</v>
+        <v>0.4966248438282534</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -10453,10 +10453,10 @@
         <v>0.04624628234130001</v>
       </c>
       <c r="K118">
-        <v>1</v>
+        <v>0.4297920751598738</v>
       </c>
       <c r="L118">
-        <v>1</v>
+        <v>0.430829664574664</v>
       </c>
       <c r="M118">
         <v>0.02146822065114975</v>
@@ -10501,7 +10501,7 @@
         <v>0.4</v>
       </c>
       <c r="AD118">
-        <v>0.5290239219036122</v>
+        <v>0.5303889785751662</v>
       </c>
     </row>
     <row r="119" spans="1:30">
@@ -10515,10 +10515,10 @@
         <v>0.0240107238128</v>
       </c>
       <c r="K119">
-        <v>1</v>
+        <v>0.4297920751598738</v>
       </c>
       <c r="L119">
-        <v>1</v>
+        <v>0.430829664574664</v>
       </c>
       <c r="M119">
         <v>0.02146822065114975</v>
@@ -10563,7 +10563,7 @@
         <v>0.4</v>
       </c>
       <c r="AD119">
-        <v>0.5290239219036122</v>
+        <v>0.5303889785751662</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -10574,10 +10574,10 @@
         <v>0.0132393220727</v>
       </c>
       <c r="K120">
-        <v>1</v>
+        <v>0.4297920751598738</v>
       </c>
       <c r="L120">
-        <v>1</v>
+        <v>0.430829664574664</v>
       </c>
       <c r="M120">
         <v>0.01237578317523003</v>
@@ -10622,7 +10622,7 @@
         <v>0.4</v>
       </c>
       <c r="AD120">
-        <v>0.4953383672028363</v>
+        <v>0.4966248438282534</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -10633,10 +10633,10 @@
         <v>0.0136083846088</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>0.4297920751598738</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>0.430829664574664</v>
       </c>
       <c r="M121">
         <v>0.003283345326781273</v>
@@ -10681,7 +10681,7 @@
         <v>0.4</v>
       </c>
       <c r="AD121">
-        <v>0.4616528120340893</v>
+        <v>0.4628607086122779</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -10716,10 +10716,10 @@
         <v>1.71552041221</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>0.4295787827560743</v>
       </c>
       <c r="L122">
-        <v>1</v>
+        <v>0.4306009049966477</v>
       </c>
       <c r="M122">
         <v>0.001707691450913747</v>
@@ -10764,7 +10764,7 @@
         <v>0.35</v>
       </c>
       <c r="AD122">
-        <v>0.3843257671113942</v>
+        <v>0.385280363715071</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -10796,10 +10796,10 @@
         <v>0.0209700823011</v>
       </c>
       <c r="K123">
-        <v>1</v>
+        <v>0.4290716707770558</v>
       </c>
       <c r="L123">
-        <v>1</v>
+        <v>0.4301594869487828</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0.2</v>
       </c>
       <c r="AD123">
-        <v>0.2426820490002255</v>
+        <v>0.2431414683382794</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -10879,10 +10879,10 @@
         <v>2.93535451532</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <v>0.4291330786879514</v>
       </c>
       <c r="L124">
-        <v>1</v>
+        <v>0.430183950530744</v>
       </c>
       <c r="M124">
         <v>0.0008468113515688024</v>
@@ -10927,7 +10927,7 @@
         <v>0.2</v>
       </c>
       <c r="AD124">
-        <v>0.2498120295325862</v>
+        <v>0.2503055989883567</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -10962,10 +10962,10 @@
         <v>2.07696992176</v>
       </c>
       <c r="K125">
-        <v>1</v>
+        <v>0.4288064547596255</v>
       </c>
       <c r="L125">
-        <v>1</v>
+        <v>0.4299213625216684</v>
       </c>
       <c r="M125">
         <v>0.01043700112236871</v>
@@ -11010,7 +11010,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="AD125">
-        <v>0.5645995522148262</v>
+        <v>0.5657231482803563</v>
       </c>
     </row>
     <row r="126" spans="1:30">
@@ -11045,10 +11045,10 @@
         <v>3.5744032961</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <v>0.4259406467089625</v>
       </c>
       <c r="L126">
-        <v>1</v>
+        <v>0.4273982306366189</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -11093,7 +11093,7 @@
         <v>0.55</v>
       </c>
       <c r="AD126">
-        <v>0.515680103888758</v>
+        <v>0.5157561007329854</v>
       </c>
     </row>
     <row r="127" spans="1:30">
@@ -11128,10 +11128,10 @@
         <v>2.21979037881</v>
       </c>
       <c r="K127">
-        <v>1</v>
+        <v>0.4266403309190819</v>
       </c>
       <c r="L127">
-        <v>1</v>
+        <v>0.4280016829613164</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -11176,7 +11176,7 @@
         <v>0.4</v>
       </c>
       <c r="AD127">
-        <v>0.3918620843874849</v>
+        <v>0.3918760983032744</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -11190,10 +11190,10 @@
         <v>0.0168068016542</v>
       </c>
       <c r="K128">
-        <v>1</v>
+        <v>0.4288061292162275</v>
       </c>
       <c r="L128">
-        <v>1</v>
+        <v>0.4299072041223929</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0.6</v>
       </c>
       <c r="AD128">
-        <v>0.5791891892813329</v>
+        <v>0.5803455488869473</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -11252,10 +11252,10 @@
         <v>0.112425776439</v>
       </c>
       <c r="K129">
-        <v>1</v>
+        <v>0.4288061292162275</v>
       </c>
       <c r="L129">
-        <v>1</v>
+        <v>0.4299072041223929</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0.6</v>
       </c>
       <c r="AD129">
-        <v>0.5753565627509815</v>
+        <v>0.5765039817892739</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -11335,10 +11335,10 @@
         <v>1.68799322993</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>0.4288574556466299</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>0.429939345170989</v>
       </c>
       <c r="M130">
         <v>0.004039923961345966</v>
@@ -11383,7 +11383,7 @@
         <v>0.6</v>
       </c>
       <c r="AD130">
-        <v>0.5984658879156916</v>
+        <v>0.5996828386021956</v>
       </c>
     </row>
     <row r="131" spans="1:30">
@@ -11418,10 +11418,10 @@
         <v>3.89899027525</v>
       </c>
       <c r="K131">
-        <v>1</v>
+        <v>0.4260910760476629</v>
       </c>
       <c r="L131">
-        <v>1</v>
+        <v>0.4275407998005082</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -11466,7 +11466,7 @@
         <v>0.5599999999999999</v>
       </c>
       <c r="AD131">
-        <v>0.5259105627427869</v>
+        <v>0.5260602743002039</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -11480,10 +11480,10 @@
         <v>1.16536292635</v>
       </c>
       <c r="K132">
-        <v>1</v>
+        <v>0.4259235101786702</v>
       </c>
       <c r="L132">
-        <v>1</v>
+        <v>0.4274218479381465</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -11528,7 +11528,7 @@
         <v>0.8</v>
       </c>
       <c r="AD132">
-        <v>0.7271195106943179</v>
+        <v>0.7276864103023999</v>
       </c>
     </row>
     <row r="133" spans="1:30">
@@ -11563,10 +11563,10 @@
         <v>1.17521083123</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>0.428725300477364</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>0.4298392321986522</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -11611,7 +11611,7 @@
         <v>0.5</v>
       </c>
       <c r="AD133">
-        <v>0.4746597602924292</v>
+        <v>0.4755462181673301</v>
       </c>
     </row>
     <row r="134" spans="1:30">
@@ -11643,10 +11643,10 @@
         <v>0.0140104774262</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>0.4288061292162275</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>0.4299072041223929</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -11691,7 +11691,7 @@
         <v>0.6</v>
       </c>
       <c r="AD134">
-        <v>0.5707485280743233</v>
+        <v>0.5718851977103657</v>
       </c>
     </row>
     <row r="135" spans="1:30">
@@ -11723,10 +11723,10 @@
         <v>0.0300446186177</v>
       </c>
       <c r="K135">
-        <v>1</v>
+        <v>0.4288061292162275</v>
       </c>
       <c r="L135">
-        <v>1</v>
+        <v>0.4299072041223929</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -11771,7 +11771,7 @@
         <v>0.6</v>
       </c>
       <c r="AD135">
-        <v>0.5699731193040556</v>
+        <v>0.5711079801037144</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -11806,10 +11806,10 @@
         <v>0.273551884295</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>0.4288061292162275</v>
       </c>
       <c r="L136">
-        <v>1</v>
+        <v>0.4299072041223929</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -11854,7 +11854,7 @@
         <v>0.6</v>
       </c>
       <c r="AD136">
-        <v>0.5821382927355248</v>
+        <v>0.5833015318682109</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -11868,10 +11868,10 @@
         <v>0.371361152387</v>
       </c>
       <c r="K137">
-        <v>1</v>
+        <v>0.4293654903522748</v>
       </c>
       <c r="L137">
-        <v>1</v>
+        <v>0.4303721454186309</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -11916,7 +11916,7 @@
         <v>0.4</v>
       </c>
       <c r="AD137">
-        <v>0.4007534151521215</v>
+        <v>0.4016734182316941</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -11951,10 +11951,10 @@
         <v>0.6881460772840001</v>
       </c>
       <c r="K138">
-        <v>1</v>
+        <v>0.4292588441503752</v>
       </c>
       <c r="L138">
-        <v>1</v>
+        <v>0.4302577656296228</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -11999,7 +11999,7 @@
         <v>0.3</v>
       </c>
       <c r="AD138">
-        <v>0.3170067246962555</v>
+        <v>0.3176949099368778</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -12034,10 +12034,10 @@
         <v>0.8337031329919999</v>
       </c>
       <c r="K139">
-        <v>1</v>
+        <v>0.4286114068017847</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>0.4297346224908086</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -12082,7 +12082,7 @@
         <v>0.4</v>
       </c>
       <c r="AD139">
-        <v>0.4092612953727108</v>
+        <v>0.4099577322862815</v>
       </c>
     </row>
     <row r="140" spans="1:30">
@@ -12096,10 +12096,10 @@
         <v>0.30754770887</v>
       </c>
       <c r="K140">
-        <v>1</v>
+        <v>0.4292588441503752</v>
       </c>
       <c r="L140">
-        <v>1</v>
+        <v>0.4302577656296228</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -12144,7 +12144,7 @@
         <v>0.3</v>
       </c>
       <c r="AD140">
-        <v>0.3170067246962555</v>
+        <v>0.3176949099368778</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -12179,10 +12179,10 @@
         <v>0.3459351686029999</v>
       </c>
       <c r="K141">
-        <v>1</v>
+        <v>0.4292588441503752</v>
       </c>
       <c r="L141">
-        <v>1</v>
+        <v>0.4302577656296228</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -12227,7 +12227,7 @@
         <v>0.3</v>
       </c>
       <c r="AD141">
-        <v>0.3170067246962555</v>
+        <v>0.3176949099368778</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -12241,10 +12241,10 @@
         <v>0.175488691422</v>
       </c>
       <c r="K142">
-        <v>1</v>
+        <v>0.4290968763276334</v>
       </c>
       <c r="L142">
-        <v>1</v>
+        <v>0.430100720191199</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -12289,7 +12289,7 @@
         <v>0.2</v>
       </c>
       <c r="AD142">
-        <v>0.2340876138848204</v>
+        <v>0.2345283989515743</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -12324,10 +12324,10 @@
         <v>0.369400391189</v>
       </c>
       <c r="K143">
-        <v>1</v>
+        <v>0.4291521979484756</v>
       </c>
       <c r="L143">
-        <v>1</v>
+        <v>0.4301433858406146</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -12372,7 +12372,7 @@
         <v>0.2</v>
       </c>
       <c r="AD143">
-        <v>0.2332600342403894</v>
+        <v>0.2337164016420621</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -12407,10 +12407,10 @@
         <v>0.721570157797</v>
       </c>
       <c r="K144">
-        <v>1</v>
+        <v>0.4291773315025255</v>
       </c>
       <c r="L144">
-        <v>1</v>
+        <v>0.4301587588841466</v>
       </c>
       <c r="M144">
         <v>0</v>
@@ -12455,7 +12455,7 @@
         <v>0.3</v>
       </c>
       <c r="AD144">
-        <v>0.3170067246962555</v>
+        <v>0.3176660720911678</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -12466,10 +12466,10 @@
         <v>0.0150147012612</v>
       </c>
       <c r="K145">
-        <v>1</v>
+        <v>0.4291521979484756</v>
       </c>
       <c r="L145">
-        <v>1</v>
+        <v>0.4301433858406146</v>
       </c>
       <c r="M145">
         <v>0</v>
@@ -12514,7 +12514,7 @@
         <v>0.2</v>
       </c>
       <c r="AD145">
-        <v>0.2332600342403894</v>
+        <v>0.2337164016420621</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -12546,10 +12546,10 @@
         <v>0.0183272473952</v>
       </c>
       <c r="K146">
-        <v>1</v>
+        <v>0.4291521979484756</v>
       </c>
       <c r="L146">
-        <v>1</v>
+        <v>0.4301433858406146</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>0.2</v>
       </c>
       <c r="AD146">
-        <v>0.2332600342403894</v>
+        <v>0.2337164016420621</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -12626,10 +12626,10 @@
         <v>0.437614282966</v>
       </c>
       <c r="K147">
-        <v>1</v>
+        <v>0.4291521979484756</v>
       </c>
       <c r="L147">
-        <v>1</v>
+        <v>0.4301433858406146</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0.2</v>
       </c>
       <c r="AD147">
-        <v>0.2332600342403894</v>
+        <v>0.2337164016420621</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -12688,10 +12688,10 @@
         <v>0.085787961728</v>
       </c>
       <c r="K148">
-        <v>1</v>
+        <v>0.4291521979484756</v>
       </c>
       <c r="L148">
-        <v>1</v>
+        <v>0.4301433858406146</v>
       </c>
       <c r="M148">
         <v>0</v>
@@ -12736,7 +12736,7 @@
         <v>0.2</v>
       </c>
       <c r="AD148">
-        <v>0.2332600342403894</v>
+        <v>0.2337164016420621</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -12771,10 +12771,10 @@
         <v>0.621545169511</v>
       </c>
       <c r="K149">
-        <v>1</v>
+        <v>0.4291521979484756</v>
       </c>
       <c r="L149">
-        <v>1</v>
+        <v>0.4301433858406146</v>
       </c>
       <c r="M149">
         <v>0</v>
@@ -12819,7 +12819,7 @@
         <v>0.2</v>
       </c>
       <c r="AD149">
-        <v>0.2361095904507555</v>
+        <v>0.2365726051604647</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -12854,10 +12854,10 @@
         <v>1.33559155443</v>
       </c>
       <c r="K150">
-        <v>1</v>
+        <v>0.4291773315025255</v>
       </c>
       <c r="L150">
-        <v>1</v>
+        <v>0.4301587588841466</v>
       </c>
       <c r="M150">
         <v>0</v>
@@ -12902,7 +12902,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="AD150">
-        <v>0.3795874982216109</v>
+        <v>0.3803928310430535</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -12916,10 +12916,10 @@
         <v>0.0318299590005</v>
       </c>
       <c r="K151">
-        <v>1</v>
+        <v>0.4281472678467466</v>
       </c>
       <c r="L151">
-        <v>1</v>
+        <v>0.4293216458567812</v>
       </c>
       <c r="M151">
         <v>0</v>
@@ -12964,7 +12964,7 @@
         <v>0.4</v>
       </c>
       <c r="AD151">
-        <v>0.3907198873314394</v>
+        <v>0.3912215233050769</v>
       </c>
     </row>
     <row r="152" spans="1:30">
@@ -12999,10 +12999,10 @@
         <v>0.408823705337</v>
       </c>
       <c r="K152">
-        <v>1</v>
+        <v>0.4283628048559077</v>
       </c>
       <c r="L152">
-        <v>1</v>
+        <v>0.4295098152817436</v>
       </c>
       <c r="M152">
         <v>0</v>
@@ -13047,7 +13047,7 @@
         <v>0.4</v>
       </c>
       <c r="AD152">
-        <v>0.3901935448142542</v>
+        <v>0.3907640261443934</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -13082,10 +13082,10 @@
         <v>0.398153036498</v>
       </c>
       <c r="K153">
-        <v>1</v>
+        <v>0.4283628048559077</v>
       </c>
       <c r="L153">
-        <v>1</v>
+        <v>0.4295098152817436</v>
       </c>
       <c r="M153">
         <v>0</v>
@@ -13130,7 +13130,7 @@
         <v>0.4</v>
       </c>
       <c r="AD153">
-        <v>0.3915470279981798</v>
+        <v>0.3921206666689652</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -13144,10 +13144,10 @@
         <v>0.0382324670557</v>
       </c>
       <c r="K154">
-        <v>1</v>
+        <v>0.4281472678467466</v>
       </c>
       <c r="L154">
-        <v>1</v>
+        <v>0.4293216458567812</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0.4</v>
       </c>
       <c r="AD154">
-        <v>0.3903479969377052</v>
+        <v>0.3908487653832715</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -13206,10 +13206,10 @@
         <v>0.00919867253734</v>
       </c>
       <c r="K155">
-        <v>1</v>
+        <v>0.4281472678467466</v>
       </c>
       <c r="L155">
-        <v>1</v>
+        <v>0.4293216458567812</v>
       </c>
       <c r="M155">
         <v>0</v>
@@ -13254,7 +13254,7 @@
         <v>0.4</v>
       </c>
       <c r="AD155">
-        <v>0.3907198873314394</v>
+        <v>0.3912215233050769</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -13265,10 +13265,10 @@
         <v>0.123822511763</v>
       </c>
       <c r="K156">
-        <v>1</v>
+        <v>0.4281472678467466</v>
       </c>
       <c r="L156">
-        <v>1</v>
+        <v>0.4293216458567812</v>
       </c>
       <c r="M156">
         <v>0</v>
@@ -13313,7 +13313,7 @@
         <v>0.4</v>
       </c>
       <c r="AD156">
-        <v>0.3902240334731271</v>
+        <v>0.3907245127426694</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -13348,10 +13348,10 @@
         <v>6.527804118580001</v>
       </c>
       <c r="K157">
-        <v>1</v>
+        <v>0.427350535160858</v>
       </c>
       <c r="L157">
-        <v>1</v>
+        <v>0.4286339010488756</v>
       </c>
       <c r="M157">
         <v>0</v>
@@ -13396,7 +13396,7 @@
         <v>0.625</v>
       </c>
       <c r="AD157">
-        <v>0.4110486517067561</v>
+        <v>0.4113393408106449</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -13431,10 +13431,10 @@
         <v>5.569491520030001</v>
       </c>
       <c r="K158">
-        <v>1</v>
+        <v>0.4281841973723242</v>
       </c>
       <c r="L158">
-        <v>1</v>
+        <v>0.429349752043798</v>
       </c>
       <c r="M158">
         <v>0</v>
@@ -13479,7 +13479,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="AD158">
-        <v>0.2727140261648921</v>
+        <v>0.2729520428375506</v>
       </c>
     </row>
     <row r="159" spans="1:30">
@@ -13493,10 +13493,10 @@
         <v>0.0598534218439</v>
       </c>
       <c r="K159">
-        <v>1</v>
+        <v>0.4281472678467466</v>
       </c>
       <c r="L159">
-        <v>1</v>
+        <v>0.4293216458567812</v>
       </c>
       <c r="M159">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0.4</v>
       </c>
       <c r="AD159">
-        <v>0.3899761065439706</v>
+        <v>0.3904760074614659</v>
       </c>
     </row>
     <row r="160" spans="1:30">
@@ -13576,10 +13576,10 @@
         <v>0.634695885625</v>
       </c>
       <c r="K160">
-        <v>1</v>
+        <v>0.4291202845634282</v>
       </c>
       <c r="L160">
-        <v>1</v>
+        <v>0.4300819282521874</v>
       </c>
       <c r="M160">
         <v>0</v>
@@ -13624,7 +13624,7 @@
         <v>0.4</v>
       </c>
       <c r="AD160">
-        <v>0.4062052330218716</v>
+        <v>0.407051843186255</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -13659,10 +13659,10 @@
         <v>2.42756777369</v>
       </c>
       <c r="K161">
-        <v>1</v>
+        <v>0.4287558115896574</v>
       </c>
       <c r="L161">
-        <v>1</v>
+        <v>0.4298310306107761</v>
       </c>
       <c r="M161">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0.45</v>
       </c>
       <c r="AD161">
-        <v>0.2703411624997163</v>
+        <v>0.2707579907885871</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -13742,10 +13742,10 @@
         <v>2.17312416967</v>
       </c>
       <c r="K162">
-        <v>1</v>
+        <v>0.4288247399223868</v>
       </c>
       <c r="L162">
-        <v>1</v>
+        <v>0.4298622158565047</v>
       </c>
       <c r="M162">
         <v>0.0002051757648587227</v>
@@ -13790,7 +13790,7 @@
         <v>0.5599999999999999</v>
       </c>
       <c r="AD162">
-        <v>0.5495039881667885</v>
+        <v>0.5505920098144421</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -13804,10 +13804,10 @@
         <v>0.113264525363</v>
       </c>
       <c r="K163">
-        <v>1</v>
+        <v>0.4291521979484756</v>
       </c>
       <c r="L163">
-        <v>1</v>
+        <v>0.4301433858406146</v>
       </c>
       <c r="M163">
         <v>0</v>
@@ -13852,7 +13852,7 @@
         <v>0.2</v>
       </c>
       <c r="AD163">
-        <v>0.233875924299856</v>
+        <v>0.2343337284203156</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -13866,10 +13866,10 @@
         <v>0.563370273913</v>
       </c>
       <c r="K164">
-        <v>1</v>
+        <v>0.4290360514163467</v>
       </c>
       <c r="L164">
-        <v>1</v>
+        <v>0.4300387418211616</v>
       </c>
       <c r="M164">
         <v>0</v>
@@ -13914,7 +13914,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="AD164">
-        <v>0.3466987419231016</v>
+        <v>0.3473817009326318</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -13946,10 +13946,10 @@
         <v>0.12166109435</v>
       </c>
       <c r="K165">
-        <v>1</v>
+        <v>0.4291521979484756</v>
       </c>
       <c r="L165">
-        <v>1</v>
+        <v>0.4301433858406146</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -13994,7 +13994,7 @@
         <v>0.2</v>
       </c>
       <c r="AD165">
-        <v>0.2344918143593221</v>
+        <v>0.2349510551985687</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -14029,10 +14029,10 @@
         <v>0.446198543918</v>
       </c>
       <c r="K166">
-        <v>1</v>
+        <v>0.4290230574136948</v>
       </c>
       <c r="L166">
-        <v>1</v>
+        <v>0.430011305752192</v>
       </c>
       <c r="M166">
         <v>0</v>
@@ -14077,7 +14077,7 @@
         <v>0.2</v>
       </c>
       <c r="AD166">
-        <v>0.2346994444400291</v>
+        <v>0.235115561591326</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -14112,10 +14112,10 @@
         <v>0.35329402733</v>
       </c>
       <c r="K167">
-        <v>1</v>
+        <v>0.4290773853236559</v>
       </c>
       <c r="L167">
-        <v>1</v>
+        <v>0.4300595660877445</v>
       </c>
       <c r="M167">
         <v>0</v>
@@ -14160,7 +14160,7 @@
         <v>0.2</v>
       </c>
       <c r="AD167">
-        <v>0.2344918143593221</v>
+        <v>0.2349251794211812</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -14174,10 +14174,10 @@
         <v>0.0389842632097</v>
       </c>
       <c r="K168">
-        <v>1</v>
+        <v>0.4289137441185226</v>
       </c>
       <c r="L168">
-        <v>1</v>
+        <v>0.4298609935866397</v>
       </c>
       <c r="M168">
         <v>0.002553992718458175</v>
@@ -14222,7 +14222,7 @@
         <v>0.4</v>
       </c>
       <c r="AD168">
-        <v>0.4934090537062121</v>
+        <v>0.4943885307659848</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -14257,10 +14257,10 @@
         <v>2.13840697052</v>
       </c>
       <c r="K169">
-        <v>1</v>
+        <v>0.429064291572531</v>
       </c>
       <c r="L169">
-        <v>1</v>
+        <v>0.4300362855840621</v>
       </c>
       <c r="M169">
         <v>0</v>
@@ -14305,7 +14305,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="AD169">
-        <v>0.3550716916589683</v>
+        <v>0.3557810881122877</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -14340,10 +14340,10 @@
         <v>0.246544328662</v>
       </c>
       <c r="K170">
-        <v>1</v>
+        <v>0.4290381040702807</v>
       </c>
       <c r="L170">
-        <v>1</v>
+        <v>0.4299897245766968</v>
       </c>
       <c r="M170">
         <v>0</v>
@@ -14388,7 +14388,7 @@
         <v>0.4</v>
       </c>
       <c r="AD170">
-        <v>0.4410095473534945</v>
+        <v>0.4419089123898398</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -14423,10 +14423,10 @@
         <v>2.01964419967</v>
       </c>
       <c r="K171">
-        <v>1</v>
+        <v>0.4273743547769465</v>
       </c>
       <c r="L171">
-        <v>1</v>
+        <v>0.4286454622822492</v>
       </c>
       <c r="M171">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0.55</v>
       </c>
       <c r="AD171">
-        <v>0.5172668016948895</v>
+        <v>0.5178122402797742</v>
       </c>
     </row>
     <row r="172" spans="1:30">
@@ -14506,10 +14506,10 @@
         <v>0.06321533988480001</v>
       </c>
       <c r="K172">
-        <v>1</v>
+        <v>0.4289759240944018</v>
       </c>
       <c r="L172">
-        <v>1</v>
+        <v>0.4299253590816684</v>
       </c>
       <c r="M172">
         <v>0.002553992718458175</v>
@@ -14554,7 +14554,7 @@
         <v>0.4</v>
       </c>
       <c r="AD172">
-        <v>0.4934090537062121</v>
+        <v>0.4944095922816997</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -14589,10 +14589,10 @@
         <v>2.58494964248</v>
       </c>
       <c r="K173">
-        <v>1</v>
+        <v>0.4287893841667643</v>
       </c>
       <c r="L173">
-        <v>1</v>
+        <v>0.4297322625965826</v>
       </c>
       <c r="M173">
         <v>0.004541686508390638</v>
@@ -14637,7 +14637,7 @@
         <v>0.4</v>
       </c>
       <c r="AD173">
-        <v>0.4569290597816074</v>
+        <v>0.4577813150300392</v>
       </c>
     </row>
     <row r="174" spans="1:30">
@@ -14672,10 +14672,10 @@
         <v>1.85460780852</v>
       </c>
       <c r="K174">
-        <v>1</v>
+        <v>0.4290563401198289</v>
       </c>
       <c r="L174">
-        <v>1</v>
+        <v>0.429990702971787</v>
       </c>
       <c r="M174">
         <v>0</v>
@@ -14720,7 +14720,7 @@
         <v>0.4</v>
       </c>
       <c r="AD174">
-        <v>0.2434793170647848</v>
+        <v>0.2439225674979583</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -14755,10 +14755,10 @@
         <v>0.872716799823</v>
       </c>
       <c r="K175">
-        <v>1</v>
+        <v>0.4286028442391268</v>
       </c>
       <c r="L175">
-        <v>1</v>
+        <v>0.4295391661114973</v>
       </c>
       <c r="M175">
         <v>7.358063012361527e-05</v>
@@ -14803,7 +14803,7 @@
         <v>0.4</v>
       </c>
       <c r="AD175">
-        <v>0.4082254033805491</v>
+        <v>0.4089008605284597</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -14838,10 +14838,10 @@
         <v>2.43155254563</v>
       </c>
       <c r="K176">
-        <v>1</v>
+        <v>0.4289282745635948</v>
       </c>
       <c r="L176">
-        <v>1</v>
+        <v>0.4299498466732806</v>
       </c>
       <c r="M176">
         <v>0.0001474697841331363</v>
@@ -14886,7 +14886,7 @@
         <v>0.45</v>
       </c>
       <c r="AD176">
-        <v>0.4511159580794664</v>
+        <v>0.4520078934909039</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -14921,10 +14921,10 @@
         <v>0.6805241416269999</v>
       </c>
       <c r="K177">
-        <v>1</v>
+        <v>0.42887031604124</v>
       </c>
       <c r="L177">
-        <v>1</v>
+        <v>0.4298843044541927</v>
       </c>
       <c r="M177">
         <v>0</v>
@@ -14969,7 +14969,7 @@
         <v>0.6</v>
       </c>
       <c r="AD177">
-        <v>0.5748130623650909</v>
+        <v>0.5759734552278067</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -14983,10 +14983,10 @@
         <v>0.0951353644573</v>
       </c>
       <c r="K178">
-        <v>1</v>
+        <v>0.4289144015937722</v>
       </c>
       <c r="L178">
-        <v>1</v>
+        <v>0.4299147850810865</v>
       </c>
       <c r="M178">
         <v>0</v>
@@ -15031,7 +15031,7 @@
         <v>0.6</v>
       </c>
       <c r="AD178">
-        <v>0.5719816036911488</v>
+        <v>0.573149051964281</v>
       </c>
     </row>
     <row r="179" spans="1:30">
@@ -15063,10 +15063,10 @@
         <v>0.59494629104</v>
       </c>
       <c r="K179">
-        <v>1</v>
+        <v>0.4289584871463044</v>
       </c>
       <c r="L179">
-        <v>1</v>
+        <v>0.4299452657079804</v>
       </c>
       <c r="M179">
         <v>0</v>
@@ -15111,7 +15111,7 @@
         <v>0.2</v>
       </c>
       <c r="AD179">
-        <v>0.2370204473224081</v>
+        <v>0.2374201747791708</v>
       </c>
     </row>
     <row r="180" spans="1:30">
@@ -15146,10 +15146,10 @@
         <v>0.37002271925</v>
       </c>
       <c r="K180">
-        <v>1</v>
+        <v>0.4290025726988362</v>
       </c>
       <c r="L180">
-        <v>1</v>
+        <v>0.4299757463348745</v>
       </c>
       <c r="M180">
         <v>0</v>
@@ -15194,7 +15194,7 @@
         <v>0.2</v>
       </c>
       <c r="AD180">
-        <v>0.2353585264491108</v>
+        <v>0.2357680375579699</v>
       </c>
     </row>
     <row r="181" spans="1:30">
@@ -15229,10 +15229,10 @@
         <v>0.672879612632</v>
       </c>
       <c r="K181">
-        <v>1</v>
+        <v>0.4284163043114895</v>
       </c>
       <c r="L181">
-        <v>1</v>
+        <v>0.4293460696264115</v>
       </c>
       <c r="M181">
         <v>0</v>
@@ -15277,7 +15277,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="AD181">
-        <v>0.5125906036668549</v>
+        <v>0.5134463344005333</v>
       </c>
     </row>
     <row r="182" spans="1:30">
@@ -15291,10 +15291,10 @@
         <v>0.0446910804237</v>
       </c>
       <c r="K182">
-        <v>1</v>
+        <v>0.4289144015937722</v>
       </c>
       <c r="L182">
-        <v>1</v>
+        <v>0.4299147850810865</v>
       </c>
       <c r="M182">
         <v>0</v>
@@ -15339,7 +15339,7 @@
         <v>0.6</v>
       </c>
       <c r="AD182">
-        <v>0.5730000652635769</v>
+        <v>0.5741698893550105</v>
       </c>
     </row>
     <row r="183" spans="1:30">
@@ -15371,10 +15371,10 @@
         <v>0.28683599034</v>
       </c>
       <c r="K183">
-        <v>1</v>
+        <v>0.4289144015937722</v>
       </c>
       <c r="L183">
-        <v>1</v>
+        <v>0.4299147850810865</v>
       </c>
       <c r="M183">
         <v>0</v>
@@ -15419,7 +15419,7 @@
         <v>0.4</v>
       </c>
       <c r="AD183">
-        <v>0.4057586376835489</v>
+        <v>0.4065383289951613</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -15433,10 +15433,10 @@
         <v>0.363445886177</v>
       </c>
       <c r="K184">
-        <v>1</v>
+        <v>0.4289144015937722</v>
       </c>
       <c r="L184">
-        <v>1</v>
+        <v>0.4299147850810865</v>
       </c>
       <c r="M184">
         <v>0</v>
@@ -15481,7 +15481,7 @@
         <v>0.6</v>
       </c>
       <c r="AD184">
-        <v>0.5737784208701471</v>
+        <v>0.5749500606722028</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -15513,10 +15513,10 @@
         <v>0.0551403417203</v>
       </c>
       <c r="K185">
-        <v>1</v>
+        <v>0.428665024215006</v>
       </c>
       <c r="L185">
-        <v>1</v>
+        <v>0.4296035316065257</v>
       </c>
       <c r="M185">
         <v>0</v>
@@ -15561,7 +15561,7 @@
         <v>0.4</v>
       </c>
       <c r="AD185">
-        <v>0.4021274916139767</v>
+        <v>0.4028097853615446</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -15575,10 +15575,10 @@
         <v>0.131220892576</v>
       </c>
       <c r="K186">
-        <v>1</v>
+        <v>0.428665024215006</v>
       </c>
       <c r="L186">
-        <v>1</v>
+        <v>0.4296035316065257</v>
       </c>
       <c r="M186">
         <v>0</v>
@@ -15623,7 +15623,7 @@
         <v>0.4</v>
       </c>
       <c r="AD186">
-        <v>0.401985195271054</v>
+        <v>0.4026671570765393</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -15658,10 +15658,10 @@
         <v>0.809723318079</v>
       </c>
       <c r="K187">
-        <v>1</v>
+        <v>0.4286028442391268</v>
       </c>
       <c r="L187">
-        <v>1</v>
+        <v>0.4295391661114973</v>
       </c>
       <c r="M187">
         <v>0</v>
@@ -15706,7 +15706,7 @@
         <v>0.5</v>
       </c>
       <c r="AD187">
-        <v>0.4899705154115566</v>
+        <v>0.4908366636355649</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -15741,10 +15741,10 @@
         <v>0.8250874273819999</v>
       </c>
       <c r="K188">
-        <v>1</v>
+        <v>0.4291470804404477</v>
       </c>
       <c r="L188">
-        <v>1</v>
+        <v>0.4301024727706123</v>
       </c>
       <c r="M188">
         <v>0</v>
@@ -15789,7 +15789,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="AD188">
-        <v>0.3595588835320455</v>
+        <v>0.3603051517815381</v>
       </c>
     </row>
     <row r="189" spans="1:30">
@@ -15803,10 +15803,10 @@
         <v>0.0279017235435</v>
       </c>
       <c r="K189">
-        <v>1</v>
+        <v>0.4289144015937722</v>
       </c>
       <c r="L189">
-        <v>1</v>
+        <v>0.4299147850810865</v>
       </c>
       <c r="M189">
         <v>0</v>
@@ -15851,7 +15851,7 @@
         <v>0.6</v>
       </c>
       <c r="AD189">
-        <v>0.5694785761827859</v>
+        <v>0.5706401855134153</v>
       </c>
     </row>
     <row r="190" spans="1:30">
@@ -15886,10 +15886,10 @@
         <v>0.726554753339</v>
       </c>
       <c r="K190">
-        <v>1</v>
+        <v>0.4290469794745195</v>
       </c>
       <c r="L190">
-        <v>1</v>
+        <v>0.4300311883096706</v>
       </c>
       <c r="M190">
         <v>0</v>
@@ -15934,7 +15934,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="AD190">
-        <v>0.5354377249142802</v>
+        <v>0.5365630830832694</v>
       </c>
     </row>
     <row r="191" spans="1:30">
@@ -15969,10 +15969,10 @@
         <v>0.31407555055</v>
       </c>
       <c r="K191">
-        <v>1</v>
+        <v>0.4289144015937722</v>
       </c>
       <c r="L191">
-        <v>1</v>
+        <v>0.4299147850810865</v>
       </c>
       <c r="M191">
         <v>0</v>
@@ -16017,7 +16017,7 @@
         <v>0.6</v>
       </c>
       <c r="AD191">
-        <v>0.5698004915267529</v>
+        <v>0.5709628518060548</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -16052,10 +16052,10 @@
         <v>1.45773455595</v>
       </c>
       <c r="K192">
-        <v>1</v>
+        <v>0.4284784842873687</v>
       </c>
       <c r="L192">
-        <v>1</v>
+        <v>0.4294104351214399</v>
       </c>
       <c r="M192">
         <v>0</v>
@@ -16100,7 +16100,7 @@
         <v>0.52</v>
       </c>
       <c r="AD192">
-        <v>0.5019528010454161</v>
+        <v>0.5028047779391411</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -16135,10 +16135,10 @@
         <v>7.36009593842</v>
       </c>
       <c r="K193">
-        <v>1</v>
+        <v>0.4292756428355383</v>
       </c>
       <c r="L193">
-        <v>1</v>
+        <v>0.4302213716041026</v>
       </c>
       <c r="M193">
         <v>0</v>
@@ -16183,7 +16183,7 @@
         <v>0.509090909090909</v>
       </c>
       <c r="AD193">
-        <v>0.3170440321849303</v>
+        <v>0.3177334798137824</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -16218,10 +16218,10 @@
         <v>0.7323786517380001</v>
       </c>
       <c r="K194">
-        <v>1</v>
+        <v>0.4290469794745195</v>
       </c>
       <c r="L194">
-        <v>1</v>
+        <v>0.4300311883096706</v>
       </c>
       <c r="M194">
         <v>0</v>
@@ -16266,7 +16266,7 @@
         <v>0.6</v>
       </c>
       <c r="AD194">
-        <v>0.3952224791634638</v>
+        <v>0.3960207499331792</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -16301,10 +16301,10 @@
         <v>0.831220356866</v>
       </c>
       <c r="K195">
-        <v>1</v>
+        <v>0.4286881253097521</v>
       </c>
       <c r="L195">
-        <v>1</v>
+        <v>0.4295946739421244</v>
       </c>
       <c r="M195">
         <v>0</v>
@@ -16349,7 +16349,7 @@
         <v>0.6</v>
       </c>
       <c r="AD195">
-        <v>0.3952224791634638</v>
+        <v>0.3958937391585016</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -16384,10 +16384,10 @@
         <v>2.52608189955</v>
       </c>
       <c r="K196">
-        <v>1</v>
+        <v>0.4295318548405118</v>
       </c>
       <c r="L196">
-        <v>1</v>
+        <v>0.4304350590652396</v>
       </c>
       <c r="M196">
         <v>0</v>
@@ -16432,7 +16432,7 @@
         <v>0.45</v>
       </c>
       <c r="AD196">
-        <v>0.2711504711704893</v>
+        <v>0.2718153187487335</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -16467,10 +16467,10 @@
         <v>2.04005360405</v>
       </c>
       <c r="K197">
-        <v>1</v>
+        <v>0.4293505830675362</v>
       </c>
       <c r="L197">
-        <v>1</v>
+        <v>0.4302864809408103</v>
       </c>
       <c r="M197">
         <v>0.0001654109887538418</v>
@@ -16515,7 +16515,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="AD197">
-        <v>0.2905371332413736</v>
+        <v>0.2911890841693952</v>
       </c>
     </row>
     <row r="198" spans="1:30">
@@ -16550,10 +16550,10 @@
         <v>0.898894939965</v>
       </c>
       <c r="K198">
-        <v>1</v>
+        <v>0.4291235419418702</v>
       </c>
       <c r="L198">
-        <v>1</v>
+        <v>0.4301067877042066</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -16598,7 +16598,7 @@
         <v>0.6</v>
       </c>
       <c r="AD198">
-        <v>0.3952224791634638</v>
+        <v>0.3960463763329422</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -16633,10 +16633,10 @@
         <v>0.422837802542</v>
       </c>
       <c r="K199">
-        <v>1</v>
+        <v>0.4288434648748878</v>
       </c>
       <c r="L199">
-        <v>1</v>
+        <v>0.4299027685339675</v>
       </c>
       <c r="M199">
         <v>0</v>
@@ -16681,7 +16681,7 @@
         <v>0.4</v>
       </c>
       <c r="AD199">
-        <v>0.0530657378828372</v>
+        <v>0.05300381170162054</v>
       </c>
     </row>
     <row r="200" spans="1:30">
@@ -16716,10 +16716,10 @@
         <v>5.35462675471</v>
       </c>
       <c r="K200">
-        <v>1</v>
+        <v>0.4294524289873707</v>
       </c>
       <c r="L200">
-        <v>1</v>
+        <v>0.4304196092337685</v>
       </c>
       <c r="M200">
         <v>0</v>
@@ -16764,7 +16764,7 @@
         <v>0.4727272727272728</v>
       </c>
       <c r="AD200">
-        <v>0.1212340241309556</v>
+        <v>0.1215278554154029</v>
       </c>
     </row>
     <row r="201" spans="1:30">
@@ -16799,10 +16799,10 @@
         <v>4.38034317427</v>
       </c>
       <c r="K201">
-        <v>1</v>
+        <v>0.429624028812698</v>
       </c>
       <c r="L201">
-        <v>1</v>
+        <v>0.4305465926006581</v>
       </c>
       <c r="M201">
         <v>0</v>
@@ -16847,7 +16847,7 @@
         <v>0.5428571428571429</v>
       </c>
       <c r="AD201">
-        <v>0.1781744526722064</v>
+        <v>0.1786549844249143</v>
       </c>
     </row>
     <row r="202" spans="1:30">
@@ -16882,10 +16882,10 @@
         <v>2.33604208395</v>
       </c>
       <c r="K202">
-        <v>1</v>
+        <v>0.4290419137298736</v>
       </c>
       <c r="L202">
-        <v>1</v>
+        <v>0.4300823351371019</v>
       </c>
       <c r="M202">
         <v>0</v>
@@ -16930,7 +16930,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="AD202">
-        <v>0.1267118288883982</v>
+        <v>0.1268867485759933</v>
       </c>
     </row>
     <row r="203" spans="1:30">
@@ -16965,10 +16965,10 @@
         <v>2.06926511317</v>
       </c>
       <c r="K203">
-        <v>1</v>
+        <v>0.4288141048620416</v>
       </c>
       <c r="L203">
-        <v>1</v>
+        <v>0.4298881436230145</v>
       </c>
       <c r="M203">
         <v>0</v>
@@ -17013,7 +17013,7 @@
         <v>0.45</v>
       </c>
       <c r="AD203">
-        <v>0.1357499744507716</v>
+        <v>0.1358723088262446</v>
       </c>
     </row>
     <row r="204" spans="1:30">
@@ -17048,10 +17048,10 @@
         <v>0.290692738992</v>
       </c>
       <c r="K204">
-        <v>1</v>
+        <v>0.4288355863562563</v>
       </c>
       <c r="L204">
-        <v>1</v>
+        <v>0.4297145472677804</v>
       </c>
       <c r="M204">
         <v>0</v>
@@ -17096,7 +17096,7 @@
         <v>0.5</v>
       </c>
       <c r="AD204">
-        <v>0.1385287863238913</v>
+        <v>0.1386484405463796</v>
       </c>
     </row>
     <row r="205" spans="1:30">
@@ -17128,10 +17128,10 @@
         <v>0.0210530568995</v>
       </c>
       <c r="K205">
-        <v>1</v>
+        <v>0.4288355863562563</v>
       </c>
       <c r="L205">
-        <v>1</v>
+        <v>0.4297145472677804</v>
       </c>
       <c r="M205">
         <v>0</v>
@@ -17176,7 +17176,7 @@
         <v>0.6</v>
       </c>
       <c r="AD205">
-        <v>0.2209663633798689</v>
+        <v>0.2212783240276489</v>
       </c>
     </row>
     <row r="206" spans="1:30">
@@ -17211,10 +17211,10 @@
         <v>4.62418337496</v>
       </c>
       <c r="K206">
-        <v>1</v>
+        <v>0.4294656929205567</v>
       </c>
       <c r="L206">
-        <v>1</v>
+        <v>0.4302917848475719</v>
       </c>
       <c r="M206">
         <v>0</v>
@@ -17259,7 +17259,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="AD206">
-        <v>0.1052686819576728</v>
+        <v>0.1055178804218906</v>
       </c>
     </row>
     <row r="207" spans="1:30">
@@ -17294,10 +17294,10 @@
         <v>2.92862111308</v>
       </c>
       <c r="K207">
-        <v>1</v>
+        <v>0.429077310143672</v>
       </c>
       <c r="L207">
-        <v>1</v>
+        <v>0.429894041427854</v>
       </c>
       <c r="M207">
         <v>0</v>
@@ -17342,7 +17342,7 @@
         <v>0.55</v>
       </c>
       <c r="AD207">
-        <v>0.1785645953792591</v>
+        <v>0.1788535826957837</v>
       </c>
     </row>
     <row r="208" spans="1:30">
@@ -17377,10 +17377,10 @@
         <v>1.87666721052</v>
       </c>
       <c r="K208">
-        <v>1</v>
+        <v>0.42999504932205</v>
       </c>
       <c r="L208">
-        <v>1</v>
+        <v>0.4308390764523337</v>
       </c>
       <c r="M208">
         <v>0</v>
@@ -17425,7 +17425,7 @@
         <v>0.45</v>
       </c>
       <c r="AD208">
-        <v>0.1032858897085354</v>
+        <v>0.1037097093754581</v>
       </c>
     </row>
     <row r="209" spans="1:30">
@@ -17460,10 +17460,10 @@
         <v>1.68088691377</v>
       </c>
       <c r="K209">
-        <v>1</v>
+        <v>0.4299694595960289</v>
       </c>
       <c r="L209">
-        <v>1</v>
+        <v>0.4307787779726296</v>
       </c>
       <c r="M209">
         <v>0</v>
@@ -17508,7 +17508,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="AD209">
-        <v>0.1132844188456406</v>
+        <v>0.1137200568614329</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -17543,10 +17543,10 @@
         <v>1.58316649789</v>
       </c>
       <c r="K210">
-        <v>1</v>
+        <v>0.4301100258718544</v>
       </c>
       <c r="L210">
-        <v>1</v>
+        <v>0.4309252069219587</v>
       </c>
       <c r="M210">
         <v>0</v>
@@ -17591,7 +17591,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="AD210">
-        <v>0.1111855455665441</v>
+        <v>0.1116639772420871</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -17626,10 +17626,10 @@
         <v>3.01411723961</v>
       </c>
       <c r="K211">
-        <v>1</v>
+        <v>0.4295238868957246</v>
       </c>
       <c r="L211">
-        <v>1</v>
+        <v>0.4304987153459479</v>
       </c>
       <c r="M211">
         <v>0.001292494256445702</v>
@@ -17674,7 +17674,7 @@
         <v>0.48</v>
       </c>
       <c r="AD211">
-        <v>0.145410540168233</v>
+        <v>0.145785404568946</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -17709,10 +17709,10 @@
         <v>1.91368085665</v>
       </c>
       <c r="K212">
-        <v>1</v>
+        <v>0.4303840095391611</v>
       </c>
       <c r="L212">
-        <v>1</v>
+        <v>0.4311179781026572</v>
       </c>
       <c r="M212">
         <v>0</v>
@@ -17757,7 +17757,7 @@
         <v>0.48</v>
       </c>
       <c r="AD212">
-        <v>0.1250461233241551</v>
+        <v>0.1256420661515283</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -17792,10 +17792,10 @@
         <v>3.46223026514</v>
       </c>
       <c r="K213">
-        <v>1</v>
+        <v>0.4302197939588652</v>
       </c>
       <c r="L213">
-        <v>1</v>
+        <v>0.4310565024803896</v>
       </c>
       <c r="M213">
         <v>0</v>
@@ -17840,7 +17840,7 @@
         <v>0.48</v>
       </c>
       <c r="AD213">
-        <v>0.1215992440578873</v>
+        <v>0.1221406320031402</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -17854,10 +17854,10 @@
         <v>0.0659729765455</v>
       </c>
       <c r="K214">
-        <v>1</v>
+        <v>0.4301586346317288</v>
       </c>
       <c r="L214">
-        <v>1</v>
+        <v>0.4309895578207778</v>
       </c>
       <c r="M214">
         <v>0</v>
@@ -17902,7 +17902,7 @@
         <v>0.4</v>
       </c>
       <c r="AD214">
-        <v>0.05347298246813698</v>
+        <v>0.05383442774828226</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -17916,10 +17916,10 @@
         <v>0.157670934909</v>
       </c>
       <c r="K215">
-        <v>1</v>
+        <v>0.4300327106875363</v>
       </c>
       <c r="L215">
-        <v>1</v>
+        <v>0.4309146240416005</v>
       </c>
       <c r="M215">
         <v>0</v>
@@ -17964,7 +17964,7 @@
         <v>0.6</v>
       </c>
       <c r="AD215">
-        <v>0.2403476583349121</v>
+        <v>0.2411070348572679</v>
       </c>
     </row>
     <row r="216" spans="1:30">
@@ -17978,10 +17978,10 @@
         <v>0.0613681387559</v>
       </c>
       <c r="K216">
-        <v>1</v>
+        <v>0.4300327106875363</v>
       </c>
       <c r="L216">
-        <v>1</v>
+        <v>0.4309146240416005</v>
       </c>
       <c r="M216">
         <v>0</v>
@@ -18026,7 +18026,7 @@
         <v>0.6</v>
       </c>
       <c r="AD216">
-        <v>0.2568415985982978</v>
+        <v>0.257639451393299</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -18040,10 +18040,10 @@
         <v>0.006887366498699999</v>
       </c>
       <c r="K217">
-        <v>1</v>
+        <v>0.4300327106875363</v>
       </c>
       <c r="L217">
-        <v>1</v>
+        <v>0.4309146240416005</v>
       </c>
       <c r="M217">
         <v>0</v>
@@ -18088,7 +18088,7 @@
         <v>0.6</v>
       </c>
       <c r="AD217">
-        <v>0.2568415985982978</v>
+        <v>0.257639451393299</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -18123,10 +18123,10 @@
         <v>0.404982340137</v>
       </c>
       <c r="K218">
-        <v>1</v>
+        <v>0.4299489725215137</v>
       </c>
       <c r="L218">
-        <v>1</v>
+        <v>0.4308507907611368</v>
       </c>
       <c r="M218">
         <v>0</v>
@@ -18171,7 +18171,7 @@
         <v>0.6</v>
       </c>
       <c r="AD218">
-        <v>0.2373072792565475</v>
+        <v>0.23803311757183</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -18182,10 +18182,10 @@
         <v>0.00313213308194</v>
       </c>
       <c r="K219">
-        <v>1</v>
+        <v>0.429988965903176</v>
       </c>
       <c r="L219">
-        <v>1</v>
+        <v>0.4308873175255368</v>
       </c>
       <c r="M219">
         <v>0</v>
@@ -18230,7 +18230,7 @@
         <v>0.6</v>
       </c>
       <c r="AD219">
-        <v>0.2209663633798689</v>
+        <v>0.2216672199013805</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -18265,10 +18265,10 @@
         <v>3.20874938811</v>
       </c>
       <c r="K220">
-        <v>1</v>
+        <v>0.4299159398696662</v>
       </c>
       <c r="L220">
-        <v>1</v>
+        <v>0.4308277868296251</v>
       </c>
       <c r="M220">
         <v>0</v>
@@ -18313,7 +18313,7 @@
         <v>0.64</v>
       </c>
       <c r="AD220">
-        <v>0.2524529245280099</v>
+        <v>0.2532038443952611</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -18348,10 +18348,10 @@
         <v>0.473771331967</v>
       </c>
       <c r="K221">
-        <v>1</v>
+        <v>0.429988965903176</v>
       </c>
       <c r="L221">
-        <v>1</v>
+        <v>0.4308873175255368</v>
       </c>
       <c r="M221">
         <v>0</v>
@@ -18396,7 +18396,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="AD221">
-        <v>0.1651352364092916</v>
+        <v>0.1657058527559806</v>
       </c>
     </row>
     <row r="222" spans="1:30">
@@ -18431,10 +18431,10 @@
         <v>3.91371298437</v>
       </c>
       <c r="K222">
-        <v>1</v>
+        <v>0.430603958011982</v>
       </c>
       <c r="L222">
-        <v>1</v>
+        <v>0.4312677381845162</v>
       </c>
       <c r="M222">
         <v>0</v>
@@ -18479,7 +18479,7 @@
         <v>0.45</v>
       </c>
       <c r="AD222">
-        <v>0.09083765914514937</v>
+        <v>0.09142176205420806</v>
       </c>
     </row>
     <row r="223" spans="1:30">
@@ -18514,10 +18514,10 @@
         <v>3.225480915309999</v>
       </c>
       <c r="K223">
-        <v>1</v>
+        <v>0.4302630551014808</v>
       </c>
       <c r="L223">
-        <v>1</v>
+        <v>0.4308881691469132</v>
       </c>
       <c r="M223">
         <v>0</v>
@@ -18562,7 +18562,7 @@
         <v>0.5</v>
       </c>
       <c r="AD223">
-        <v>0.1327825523114555</v>
+        <v>0.1333467921836144</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -18597,10 +18597,10 @@
         <v>0.649885298419</v>
       </c>
       <c r="K224">
-        <v>1</v>
+        <v>0.4302011482017875</v>
       </c>
       <c r="L224">
-        <v>1</v>
+        <v>0.4310541387745598</v>
       </c>
       <c r="M224">
         <v>0</v>
@@ -18645,7 +18645,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="AD224">
-        <v>0.1120922995958597</v>
+        <v>0.1126066162935386</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -18680,10 +18680,10 @@
         <v>0.885497096906</v>
       </c>
       <c r="K225">
-        <v>1</v>
+        <v>0.4301376357104791</v>
       </c>
       <c r="L225">
-        <v>1</v>
+        <v>0.4309991420981558</v>
       </c>
       <c r="M225">
         <v>0</v>
@@ -18728,7 +18728,7 @@
         <v>0.4</v>
       </c>
       <c r="AD225">
-        <v>0.04867970577592232</v>
+        <v>0.04902548597648958</v>
       </c>
     </row>
     <row r="226" spans="1:30">
@@ -18763,10 +18763,10 @@
         <v>0.541723423291</v>
       </c>
       <c r="K226">
-        <v>1</v>
+        <v>0.4300950570524818</v>
       </c>
       <c r="L226">
-        <v>1</v>
+        <v>0.4309707281500483</v>
       </c>
       <c r="M226">
         <v>0</v>
@@ -18811,7 +18811,7 @@
         <v>0.4</v>
       </c>
       <c r="AD226">
-        <v>0.04867970577592232</v>
+        <v>0.04901237843180919</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -18846,10 +18846,10 @@
         <v>5.00280094556</v>
       </c>
       <c r="K227">
-        <v>1</v>
+        <v>0.4306406423119624</v>
       </c>
       <c r="L227">
-        <v>1</v>
+        <v>0.4313745015558468</v>
       </c>
       <c r="M227">
         <v>0</v>
@@ -18894,7 +18894,7 @@
         <v>0.475</v>
       </c>
       <c r="AD227">
-        <v>0.1117524146507108</v>
+        <v>0.1124035065005887</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -18908,10 +18908,10 @@
         <v>0.0204399744692</v>
       </c>
       <c r="K228">
-        <v>1</v>
+        <v>0.4302011482017875</v>
       </c>
       <c r="L228">
-        <v>1</v>
+        <v>0.4310541387745598</v>
       </c>
       <c r="M228">
         <v>0</v>
@@ -18956,7 +18956,7 @@
         <v>0.4</v>
       </c>
       <c r="AD228">
-        <v>0.04388642908370766</v>
+        <v>0.04424163839843685</v>
       </c>
     </row>
     <row r="229" spans="1:30">
@@ -18991,10 +18991,10 @@
         <v>0.261773390196</v>
       </c>
       <c r="K229">
-        <v>1</v>
+        <v>0.4302387840367955</v>
       </c>
       <c r="L229">
-        <v>1</v>
+        <v>0.4310774495407355</v>
       </c>
       <c r="M229">
         <v>0</v>
@@ -19039,7 +19039,7 @@
         <v>0.4</v>
       </c>
       <c r="AD229">
-        <v>0.04388642908370766</v>
+        <v>0.0442530728394668</v>
       </c>
     </row>
     <row r="230" spans="1:30">
@@ -19074,10 +19074,10 @@
         <v>0.537320566688</v>
       </c>
       <c r="K230">
-        <v>1</v>
+        <v>0.4302387840367955</v>
       </c>
       <c r="L230">
-        <v>1</v>
+        <v>0.4310774495407355</v>
       </c>
       <c r="M230">
         <v>0</v>
@@ -19122,7 +19122,7 @@
         <v>0.6</v>
       </c>
       <c r="AD230">
-        <v>0.2113798099954395</v>
+        <v>0.2121371742756658</v>
       </c>
     </row>
     <row r="231" spans="1:30">
@@ -19157,10 +19157,10 @@
         <v>4.35595396487</v>
       </c>
       <c r="K231">
-        <v>1</v>
+        <v>0.4299646678583792</v>
       </c>
       <c r="L231">
-        <v>1</v>
+        <v>0.4305396866498614</v>
       </c>
       <c r="M231">
         <v>0</v>
@@ -19205,7 +19205,7 @@
         <v>0.5</v>
       </c>
       <c r="AD231">
-        <v>0.1349098555125137</v>
+        <v>0.1353746638088107</v>
       </c>
     </row>
     <row r="232" spans="1:30">
@@ -19240,10 +19240,10 @@
         <v>1.40938642852</v>
       </c>
       <c r="K232">
-        <v>1</v>
+        <v>0.4303841475567127</v>
       </c>
       <c r="L232">
-        <v>1</v>
+        <v>0.4311738399263341</v>
       </c>
       <c r="M232">
         <v>0</v>
@@ -19288,7 +19288,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="AD232">
-        <v>0.1671574421908972</v>
+        <v>0.1678563441953417</v>
       </c>
     </row>
     <row r="233" spans="1:30">
@@ -19323,10 +19323,10 @@
         <v>2.10446035491</v>
       </c>
       <c r="K233">
-        <v>1</v>
+        <v>0.43038619375022</v>
       </c>
       <c r="L233">
-        <v>1</v>
+        <v>0.4311896297195665</v>
       </c>
       <c r="M233">
         <v>0</v>
@@ -19371,7 +19371,7 @@
         <v>0.6</v>
       </c>
       <c r="AD233">
-        <v>0.2166821815632375</v>
+        <v>0.2174984532166893</v>
       </c>
     </row>
     <row r="234" spans="1:30">
@@ -19406,10 +19406,10 @@
         <v>1.28272871879</v>
       </c>
       <c r="K234">
-        <v>1</v>
+        <v>0.4304231940022591</v>
       </c>
       <c r="L234">
-        <v>1</v>
+        <v>0.4312071022559822</v>
       </c>
       <c r="M234">
         <v>0</v>
@@ -19454,7 +19454,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="AD234">
-        <v>0.2894659322916036</v>
+        <v>0.290462774699014</v>
       </c>
     </row>
     <row r="235" spans="1:30">
@@ -19489,10 +19489,10 @@
         <v>0.145489306383</v>
       </c>
       <c r="K235">
-        <v>1</v>
+        <v>0.4299171932779952</v>
       </c>
       <c r="L235">
-        <v>1</v>
+        <v>0.4304719093951522</v>
       </c>
       <c r="M235">
         <v>0</v>
@@ -19537,7 +19537,7 @@
         <v>0.4</v>
       </c>
       <c r="AD235">
-        <v>0.04388642908370766</v>
+        <v>0.0441212575944974</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -19572,10 +19572,10 @@
         <v>11.6310675081</v>
       </c>
       <c r="K236">
-        <v>1</v>
+        <v>0.4295720806096079</v>
       </c>
       <c r="L236">
-        <v>1</v>
+        <v>0.4299293451083545</v>
       </c>
       <c r="M236">
         <v>0.0007801370448376759</v>
@@ -19655,10 +19655,10 @@
         <v>2.37047496109</v>
       </c>
       <c r="K237">
-        <v>1</v>
+        <v>0.430100074396361</v>
       </c>
       <c r="L237">
-        <v>1</v>
+        <v>0.4306663020889057</v>
       </c>
       <c r="M237">
         <v>0</v>
@@ -19703,7 +19703,7 @@
         <v>0.4</v>
       </c>
       <c r="AD237">
-        <v>0.04388642908370766</v>
+        <v>0.04418362956419537</v>
       </c>
     </row>
     <row r="238" spans="1:30">
@@ -19717,10 +19717,10 @@
         <v>0.0553591512085</v>
       </c>
       <c r="K238">
-        <v>1</v>
+        <v>0.4299171932779952</v>
       </c>
       <c r="L238">
-        <v>1</v>
+        <v>0.4304719093951522</v>
       </c>
       <c r="M238">
         <v>0</v>
@@ -19765,7 +19765,7 @@
         <v>0.4</v>
       </c>
       <c r="AD238">
-        <v>0.04388642908370766</v>
+        <v>0.0441212575944974</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -19800,10 +19800,10 @@
         <v>6.614588404709999</v>
       </c>
       <c r="K239">
-        <v>1</v>
+        <v>0.4300522883664263</v>
       </c>
       <c r="L239">
-        <v>1</v>
+        <v>0.4305815666836077</v>
       </c>
       <c r="M239">
         <v>3.688962836014597e-05</v>
@@ -19848,7 +19848,7 @@
         <v>0.4</v>
       </c>
       <c r="AD239">
-        <v>0.04840427611607737</v>
+        <v>0.04869286897766983</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -19883,10 +19883,10 @@
         <v>1.33598533711</v>
       </c>
       <c r="K240">
-        <v>1</v>
+        <v>0.4306122876494679</v>
       </c>
       <c r="L240">
-        <v>1</v>
+        <v>0.4313260445245239</v>
       </c>
       <c r="M240">
         <v>0</v>
@@ -19931,7 +19931,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="AD240">
-        <v>0.1555486830248623</v>
+        <v>0.1562907326805988</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -19945,10 +19945,10 @@
         <v>3.42656605092</v>
       </c>
       <c r="K241">
-        <v>1</v>
+        <v>0.4301875737848737</v>
       </c>
       <c r="L241">
-        <v>1</v>
+        <v>0.4310372257564399</v>
       </c>
       <c r="M241">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>0.5599999999999999</v>
       </c>
       <c r="AD241">
-        <v>0.1838362053426071</v>
+        <v>0.1845130446755103</v>
       </c>
     </row>
     <row r="242" spans="1:30">
@@ -20028,10 +20028,10 @@
         <v>4.890735238880001</v>
       </c>
       <c r="K242">
-        <v>1</v>
+        <v>0.4304311006547657</v>
       </c>
       <c r="L242">
-        <v>1</v>
+        <v>0.4311919159195656</v>
       </c>
       <c r="M242">
         <v>0</v>
@@ -20076,7 +20076,7 @@
         <v>0.75</v>
       </c>
       <c r="AD242">
-        <v>0.3384856126606462</v>
+        <v>0.339597522156642</v>
       </c>
     </row>
     <row r="243" spans="1:30">
@@ -20111,10 +20111,10 @@
         <v>2.62745841755</v>
       </c>
       <c r="K243">
-        <v>1</v>
+        <v>0.4306791901415664</v>
       </c>
       <c r="L243">
-        <v>1</v>
+        <v>0.4313195576995834</v>
       </c>
       <c r="M243">
         <v>0</v>
@@ -20159,7 +20159,7 @@
         <v>0.4400000000000001</v>
       </c>
       <c r="AD243">
-        <v>0.07979426257785706</v>
+        <v>0.08037589923522009</v>
       </c>
     </row>
     <row r="244" spans="1:30">
@@ -20194,10 +20194,10 @@
         <v>1.92960730162</v>
       </c>
       <c r="K244">
-        <v>1</v>
+        <v>0.430710089653302</v>
       </c>
       <c r="L244">
-        <v>1</v>
+        <v>0.4313215480266132</v>
       </c>
       <c r="M244">
         <v>0</v>
@@ -20242,7 +20242,7 @@
         <v>0.4</v>
       </c>
       <c r="AD244">
-        <v>0.0480741293680912</v>
+        <v>0.04858971919756806</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -20277,10 +20277,10 @@
         <v>0.282700721104</v>
       </c>
       <c r="K245">
-        <v>1</v>
+        <v>0.4307327000573128</v>
       </c>
       <c r="L245">
-        <v>1</v>
+        <v>0.4314051695032907</v>
       </c>
       <c r="M245">
         <v>0</v>
@@ -20325,7 +20325,7 @@
         <v>0.4</v>
       </c>
       <c r="AD245">
-        <v>0.04388642908370766</v>
+        <v>0.04440496329611903</v>
       </c>
     </row>
     <row r="246" spans="1:30">
@@ -20360,10 +20360,10 @@
         <v>3.3995738524</v>
       </c>
       <c r="K246">
-        <v>1</v>
+        <v>0.4307591538225026</v>
       </c>
       <c r="L246">
-        <v>1</v>
+        <v>0.4313904334161355</v>
       </c>
       <c r="M246">
         <v>0</v>
@@ -20408,7 +20408,7 @@
         <v>0.6</v>
       </c>
       <c r="AD246">
-        <v>0.212044493248374</v>
+        <v>0.2129607232989832</v>
       </c>
     </row>
     <row r="247" spans="1:30">
@@ -20443,10 +20443,10 @@
         <v>1.27296796276</v>
       </c>
       <c r="K247">
-        <v>1</v>
+        <v>0.4307672041677092</v>
       </c>
       <c r="L247">
-        <v>1</v>
+        <v>0.4314055365274225</v>
       </c>
       <c r="M247">
         <v>0</v>
@@ -20491,7 +20491,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="AD247">
-        <v>0.1598288990254307</v>
+        <v>0.1606266181161674</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -20526,10 +20526,10 @@
         <v>0.368868691256</v>
       </c>
       <c r="K248">
-        <v>1</v>
+        <v>0.430807151746071</v>
       </c>
       <c r="L248">
-        <v>1</v>
+        <v>0.43139195425709</v>
       </c>
       <c r="M248">
         <v>0</v>
@@ -20574,7 +20574,7 @@
         <v>0.5</v>
       </c>
       <c r="AD248">
-        <v>0.1282978027925081</v>
+        <v>0.1290308873757957</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -20609,10 +20609,10 @@
         <v>0.7762476821500001</v>
       </c>
       <c r="K249">
-        <v>1</v>
+        <v>0.4306612134932414</v>
       </c>
       <c r="L249">
-        <v>1</v>
+        <v>0.4312178049579968</v>
       </c>
       <c r="M249">
         <v>0</v>
@@ -20657,7 +20657,7 @@
         <v>0.5</v>
       </c>
       <c r="AD249">
-        <v>0.1550485284144653</v>
+        <v>0.155792646289314</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -20692,10 +20692,10 @@
         <v>9.269298880180001</v>
       </c>
       <c r="K250">
-        <v>1</v>
+        <v>0.4299489861932033</v>
       </c>
       <c r="L250">
-        <v>1</v>
+        <v>0.4302921100347147</v>
       </c>
       <c r="M250">
         <v>0</v>
@@ -20740,7 +20740,7 @@
         <v>0.35</v>
       </c>
       <c r="AD250">
-        <v>0.01122694255293203</v>
+        <v>0.01137849814066151</v>
       </c>
     </row>
   </sheetData>
